--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C740AE-B3E1-5A4A-B606-7ECBC8458051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8824FE04-5F90-5546-8F26-D196032AEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1024,6 +1024,17 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,17 +1052,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2288,9 +2288,9 @@
     <v>Powered by Refinitiv</v>
     <v>1893</v>
     <v>1148</v>
-    <v>1.3301000000000001</v>
-    <v>6.6</v>
-    <v>4.4340000000000004E-3</v>
+    <v>1.3306</v>
+    <v>13.6</v>
+    <v>9.0840000000000001E-3</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3332</v>
@@ -2298,24 +2298,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1502.2</v>
+    <v>1530.6</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45072.390277777777</v>
+    <v>45076.666666666664</v>
     <v>0</v>
-    <v>1482</v>
-    <v>46141940000</v>
+    <v>1492</v>
+    <v>46414750000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1496.6</v>
-    <v>81.725899999999996</v>
-    <v>1488.4</v>
-    <v>1495</v>
+    <v>1505</v>
+    <v>82.955799999999996</v>
+    <v>1497.2</v>
+    <v>1510.8</v>
     <v>31001030</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>10435</v>
-    <v>57200</v>
+    <v>46904</v>
+    <v>54840</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2883,10 +2883,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3633,17 +3633,17 @@
         <f>(J35+I35+H35+G35+F35)/5</f>
         <v>2.567905561326001E-3</v>
       </c>
-      <c r="Q16" s="69">
+      <c r="Q16" s="63">
         <f>R101/J3</f>
-        <v>5.1637970598929392</v>
-      </c>
-      <c r="R16" s="69">
+        <v>5.1943275377165721</v>
+      </c>
+      <c r="R16" s="63">
         <f>R101/J28</f>
-        <v>81.79179244831505</v>
-      </c>
-      <c r="S16" s="70">
+        <v>82.275378940296633</v>
+      </c>
+      <c r="S16" s="64">
         <f>R101/J106</f>
-        <v>23.082511255627814</v>
+        <v>23.218984492246122</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3769,13 +3769,13 @@
         <f>J40-J56-J61</f>
         <v>5761725000</v>
       </c>
-      <c r="Q19" s="69">
+      <c r="Q19" s="63">
         <f>R101/K3</f>
-        <v>3.9777534482758621</v>
-      </c>
-      <c r="R19" s="71">
+        <v>4.0012715517241375</v>
+      </c>
+      <c r="R19" s="65">
         <f>R101/K28</f>
-        <v>66.55407471513054</v>
+        <v>66.947569594692055</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4115,19 +4115,19 @@
       <c r="J28" s="11">
         <v>564139000</v>
       </c>
-      <c r="K28" s="67">
+      <c r="K28" s="61">
         <v>693300000</v>
       </c>
-      <c r="L28" s="67">
+      <c r="L28" s="61">
         <v>952500000</v>
       </c>
-      <c r="M28" s="67">
+      <c r="M28" s="61">
         <v>1321000000</v>
       </c>
-      <c r="N28" s="67">
+      <c r="N28" s="61">
         <v>1691000000</v>
       </c>
-      <c r="O28" s="67">
+      <c r="O28" s="61">
         <v>1916000000</v>
       </c>
     </row>
@@ -4221,23 +4221,23 @@
         <f>J28/J3</f>
         <v>6.3133438029934222E-2</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="62">
         <f t="shared" ref="K30:O30" si="16">K28/K3</f>
         <v>5.9767241379310346E-2</v>
       </c>
-      <c r="L30" s="68">
+      <c r="L30" s="62">
         <f t="shared" si="16"/>
         <v>6.5689655172413791E-2</v>
       </c>
-      <c r="M30" s="68">
+      <c r="M30" s="62">
         <f t="shared" si="16"/>
         <v>7.4213483146067419E-2</v>
       </c>
-      <c r="N30" s="68">
+      <c r="N30" s="62">
         <f t="shared" si="16"/>
         <v>8.0523809523809525E-2</v>
       </c>
-      <c r="O30" s="68">
+      <c r="O30" s="62">
         <f t="shared" si="16"/>
         <v>8.1531914893617025E-2</v>
       </c>
@@ -5964,10 +5964,10 @@
         <v>-3851000</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="Q83" s="63" t="s">
+      <c r="Q83" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="R83" s="64"/>
+      <c r="R83" s="69"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6000,10 +6000,10 @@
       <c r="J84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q84" s="65" t="s">
+      <c r="Q84" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="R84" s="66"/>
+      <c r="R84" s="71"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6355,10 +6355,10 @@
       <c r="J93" s="1">
         <v>-3523000</v>
       </c>
-      <c r="Q93" s="65" t="s">
+      <c r="Q93" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="R93" s="66"/>
+      <c r="R93" s="71"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="R95" s="37" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.3301000000000001</v>
+        <v>1.3306</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="R97" s="35">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>9.8210805000000012E-2</v>
+        <v>9.8232330000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6545,10 +6545,10 @@
       <c r="J98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q98" s="65" t="s">
+      <c r="Q98" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="R98" s="66"/>
+      <c r="R98" s="71"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="R100" s="33">
         <f>R99/R103</f>
-        <v>4.3817659518188071E-3</v>
+        <v>4.3561236225037794E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="R101" s="38" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>46141940000</v>
+        <v>46414750000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="R102" s="33">
         <f>R101/R103</f>
-        <v>0.99561823404818117</v>
+        <v>0.99564387637749618</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="R103" s="39">
         <f>R99+R101</f>
-        <v>46345013000</v>
+        <v>46617823000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6776,10 +6776,10 @@
       <c r="J104" s="11">
         <v>6522345000</v>
       </c>
-      <c r="Q104" s="65" t="s">
+      <c r="Q104" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="R104" s="66"/>
+      <c r="R104" s="71"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>9.7979463748592885E-2</v>
+        <v>9.8002248804440431E-2</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6911,7 +6911,7 @@
       <c r="N107" s="41"/>
       <c r="O107" s="44">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>74313317360.486053</v>
+        <v>74290123101.21315</v>
       </c>
       <c r="P107" s="45" t="s">
         <v>148</v>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="O108" s="44">
         <f>O107+O106</f>
-        <v>79604386677.898026</v>
+        <v>79581192418.625122</v>
       </c>
       <c r="P108" s="45" t="s">
         <v>144</v>
@@ -6952,14 +6952,14 @@
       </c>
       <c r="R108" s="49">
         <f>R105</f>
-        <v>9.7979463748592885E-2</v>
+        <v>9.8002248804440431E-2</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="61" t="s">
+      <c r="K109" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="L109" s="62"/>
+      <c r="L109" s="67"/>
     </row>
     <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="K110" s="50" t="s">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="L110" s="38">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>60248561654.923302</v>
+        <v>60228287916.978096</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="L113" s="38">
         <f>L110+L111-L112</f>
-        <v>66010286654.923302</v>
+        <v>65990012916.978096</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="L115" s="53">
         <f>L113/L114</f>
-        <v>2099.2536539897815</v>
+        <v>2098.6089102593987</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="L116" s="54" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>1495</v>
+        <v>1510.8</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="L117" s="56">
         <f>L115/L116-1</f>
-        <v>0.40418304614701106</v>
+        <v>0.38907129352621039</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8824FE04-5F90-5546-8F26-D196032AEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE49B3AA-E3EC-B94B-B649-046B38A89644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -556,6 +550,24 @@
   </si>
   <si>
     <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
@@ -908,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -989,7 +1001,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1034,6 +1045,11 @@
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1335,11 +1351,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1379,7 +1395,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$J$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$J$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2166,6 +2182,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7280000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2288,9 +2362,9 @@
     <v>Powered by Refinitiv</v>
     <v>1893</v>
     <v>1148</v>
-    <v>1.3306</v>
-    <v>13.6</v>
-    <v>9.0840000000000001E-3</v>
+    <v>1.3239000000000001</v>
+    <v>-39.4</v>
+    <v>-2.4333E-2</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3332</v>
@@ -2298,24 +2372,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1530.6</v>
+    <v>1637.8</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45076.666666666664</v>
+    <v>45093.666666666664</v>
     <v>0</v>
-    <v>1492</v>
-    <v>46414750000</v>
+    <v>1577.2</v>
+    <v>50196870000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1505</v>
-    <v>82.955799999999996</v>
-    <v>1497.2</v>
-    <v>1510.8</v>
+    <v>1635</v>
+    <v>88.907899999999998</v>
+    <v>1619.2</v>
+    <v>1579.8</v>
     <v>31001030</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>46904</v>
-    <v>54840</v>
+    <v>125609</v>
+    <v>49940</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2883,10 +2957,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M100" sqref="M100"/>
+      <selection pane="bottomRight" activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2948,40 +3022,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -3037,21 +3111,21 @@
         <v>23500000000</v>
       </c>
       <c r="P3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="S3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3119,7 +3193,7 @@
         <v>0.42661007980416271</v>
       </c>
       <c r="S4" s="17">
-        <f>(J105+I105+H105)/3</f>
+        <f>(J106+I106+H106)/3</f>
         <v>0.61986823351112186</v>
       </c>
       <c r="AB4" s="16"/>
@@ -3197,16 +3271,16 @@
         <v>1330216000</v>
       </c>
       <c r="P6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="S6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3254,7 +3328,7 @@
         <v>6.3133438029934222E-2</v>
       </c>
       <c r="S7" s="21">
-        <f>J106/J3</f>
+        <f>J107/J3</f>
         <v>0.2237103668100211</v>
       </c>
     </row>
@@ -3292,7 +3366,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3333,16 +3407,16 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="P9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="S9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3362,19 +3436,19 @@
         <v>908000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="17">
         <f>J9</f>
@@ -3457,21 +3531,21 @@
         <v>55630000</v>
       </c>
       <c r="P12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="S12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3588,16 +3662,16 @@
       </c>
       <c r="J15" s="1"/>
       <c r="P15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="S15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3633,20 +3707,20 @@
         <f>(J35+I35+H35+G35+F35)/5</f>
         <v>2.567905561326001E-3</v>
       </c>
-      <c r="Q16" s="63">
+      <c r="Q16" s="62">
         <f>R101/J3</f>
-        <v>5.1943275377165721</v>
-      </c>
-      <c r="R16" s="63">
+        <v>5.6175888946547996</v>
+      </c>
+      <c r="R16" s="62">
         <f>R101/J28</f>
-        <v>82.275378940296633</v>
-      </c>
-      <c r="S16" s="64">
-        <f>R101/J106</f>
-        <v>23.218984492246122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+        <v>88.979613180439571</v>
+      </c>
+      <c r="S16" s="63">
+        <f>R101/J107</f>
+        <v>25.110990495247623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3752,7 @@
         <v>11963000</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3710,16 +3784,19 @@
         <v>63613000</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3750,37 +3827,41 @@
       <c r="J19" s="10">
         <v>693000000</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="57">
         <v>835400000</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="57">
         <v>1174000000</v>
       </c>
-      <c r="M19" s="58">
+      <c r="M19" s="57">
         <v>1608000000</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="57">
         <v>2122000000</v>
       </c>
-      <c r="O19" s="58">
+      <c r="O19" s="57">
         <v>2615000000</v>
       </c>
       <c r="P19" s="31">
         <f>J40-J56-J61</f>
         <v>5761725000</v>
       </c>
-      <c r="Q19" s="63">
+      <c r="Q19" s="62">
         <f>R101/K3</f>
-        <v>4.0012715517241375</v>
-      </c>
-      <c r="R19" s="65">
+        <v>4.3273163793103446</v>
+      </c>
+      <c r="R19" s="64">
         <f>R101/K28</f>
-        <v>66.947569594692055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72.402812635222844</v>
+      </c>
+      <c r="S19" s="63">
+        <f>R101/K105</f>
+        <v>21.706512194201668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3836,7 +3917,7 @@
         <v>0.23232799245994351</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3868,28 +3949,28 @@
         <f>J19/J3</f>
         <v>7.755441930932698E-2</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="58">
         <f t="shared" ref="K21:O21" si="9">K19/K3</f>
         <v>7.2017241379310343E-2</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="58">
         <f t="shared" si="9"/>
         <v>8.0965517241379306E-2</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="58">
         <f t="shared" si="9"/>
         <v>9.0337078651685387E-2</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="58">
         <f t="shared" si="9"/>
         <v>0.10104761904761905</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="58">
         <f t="shared" si="9"/>
         <v>0.11127659574468085</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3921,7 +4002,7 @@
         <v>664675000</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3954,7 +4035,7 @@
         <v>7.4384536297874324E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3986,7 +4067,7 @@
         <v>-11251000</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4019,7 +4100,7 @@
         <v>653424000</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4052,7 +4133,7 @@
         <v>7.3125424073272258E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4084,7 +4165,7 @@
         <v>149690000</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4115,25 +4196,25 @@
       <c r="J28" s="11">
         <v>564139000</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28" s="60">
         <v>693300000</v>
       </c>
-      <c r="L28" s="61">
+      <c r="L28" s="60">
         <v>952500000</v>
       </c>
-      <c r="M28" s="61">
+      <c r="M28" s="60">
         <v>1321000000</v>
       </c>
-      <c r="N28" s="61">
+      <c r="N28" s="60">
         <v>1691000000</v>
       </c>
-      <c r="O28" s="61">
+      <c r="O28" s="60">
         <v>1916000000</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4189,7 +4270,7 @@
         <v>0.13305736250739209</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4221,28 +4302,28 @@
         <f>J28/J3</f>
         <v>6.3133438029934222E-2</v>
       </c>
-      <c r="K30" s="62">
+      <c r="K30" s="61">
         <f t="shared" ref="K30:O30" si="16">K28/K3</f>
         <v>5.9767241379310346E-2</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="61">
         <f t="shared" si="16"/>
         <v>6.5689655172413791E-2</v>
       </c>
-      <c r="M30" s="62">
+      <c r="M30" s="61">
         <f t="shared" si="16"/>
         <v>7.4213483146067419E-2</v>
       </c>
-      <c r="N30" s="62">
+      <c r="N30" s="61">
         <f t="shared" si="16"/>
         <v>8.0523809523809525E-2</v>
       </c>
-      <c r="O30" s="62">
+      <c r="O30" s="61">
         <f t="shared" si="16"/>
         <v>8.1531914893617025E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4273,23 +4354,23 @@
       <c r="J31" s="12">
         <v>18.21</v>
       </c>
-      <c r="K31" s="60">
+      <c r="K31" s="59">
         <v>22.37</v>
       </c>
-      <c r="L31" s="60">
+      <c r="L31" s="59">
         <v>30.74</v>
       </c>
-      <c r="M31" s="60">
+      <c r="M31" s="59">
         <v>42.62</v>
       </c>
-      <c r="N31" s="60">
+      <c r="N31" s="59">
         <v>54.58</v>
       </c>
-      <c r="O31" s="60">
+      <c r="O31" s="59">
         <v>61.83</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4387,7 +4468,7 @@
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -4428,31 +4509,31 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
@@ -4460,31 +4541,31 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4524,13 +4605,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>6989000</v>
@@ -4545,10 +4626,10 @@
         <v>12238000</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4588,31 +4669,31 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4746,31 +4827,31 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4842,13 +4923,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1">
         <v>18087000</v>
@@ -4863,10 +4944,10 @@
         <v>8645000</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -4874,7 +4955,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>919000</v>
@@ -4906,7 +4987,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>45972000</v>
@@ -4968,31 +5049,31 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5064,19 +5145,19 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1">
         <v>10791000</v>
@@ -5128,31 +5209,31 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5224,19 +5305,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>50903000</v>
@@ -5256,31 +5337,31 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5288,7 +5369,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>19000</v>
@@ -5320,16 +5401,16 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1">
         <v>23800000</v>
@@ -5352,7 +5433,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>19000</v>
@@ -5385,31 +5466,31 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5514,31 +5595,31 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5643,31 +5724,31 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.25">
@@ -5675,31 +5756,31 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5773,31 +5854,31 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5834,7 +5915,7 @@
     </row>
     <row r="80" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:J80" si="18">B79/B3</f>
@@ -5901,38 +5982,40 @@
       <c r="I81" s="1">
         <v>1323437000</v>
       </c>
-      <c r="J81" s="1"/>
+      <c r="J81" s="1">
+        <v>1423000000</v>
+      </c>
     </row>
     <row r="82" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="21" x14ac:dyDescent="0.25">
@@ -5964,80 +6047,80 @@
         <v>-3851000</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="Q83" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="R83" s="69"/>
+      <c r="Q83" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="R83" s="71"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q84" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="R84" s="71"/>
+        <v>91</v>
+      </c>
+      <c r="Q84" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="R84" s="73"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R85" s="25">
         <f>J17</f>
@@ -6074,7 +6157,7 @@
       </c>
       <c r="J86" s="1"/>
       <c r="Q86" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R86" s="25">
         <f>J56</f>
@@ -6113,7 +6196,7 @@
         <v>2029379000</v>
       </c>
       <c r="Q87" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R87" s="25">
         <f>J61</f>
@@ -6152,7 +6235,7 @@
         <v>-95575000</v>
       </c>
       <c r="Q88" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R88" s="33">
         <f>R85/(R86+R87)</f>
@@ -6161,7 +6244,7 @@
     </row>
     <row r="89" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:J89" si="19">(-1*B88)/B3</f>
@@ -6200,7 +6283,7 @@
         <v>1.0695907107487627E-2</v>
       </c>
       <c r="Q89" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R89" s="25">
         <f>J27</f>
@@ -6212,31 +6295,31 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="24" t="s">
         <v>19</v>
@@ -6251,13 +6334,13 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-6989000</v>
@@ -6278,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R91" s="33">
         <f>R89/R90</f>
@@ -6290,16 +6373,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>6989000</v>
@@ -6317,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="Q92" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R92" s="35">
         <f>R88*(1-R91)</f>
@@ -6355,10 +6438,10 @@
       <c r="J93" s="1">
         <v>-3523000</v>
       </c>
-      <c r="Q93" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="R93" s="71"/>
+      <c r="Q93" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="R93" s="73"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6392,10 +6475,11 @@
         <v>-87691000</v>
       </c>
       <c r="Q94" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R94" s="36">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7280000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6403,38 +6487,38 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R95" s="37" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.3306</v>
+        <v>1.3239000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6469,7 +6553,7 @@
         <v>9926000</v>
       </c>
       <c r="Q96" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R96" s="36">
         <v>8.4000000000000005E-2</v>
@@ -6480,16 +6564,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-31035000</v>
@@ -6498,20 +6582,20 @@
         <v>-18323000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R97" s="35">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>9.8232330000000007E-2</v>
+        <v>9.9132608000000011E-2</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6519,55 +6603,55 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q98" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="R98" s="71"/>
+        <v>91</v>
+      </c>
+      <c r="Q98" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="R98" s="73"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="1">
         <v>-9932000</v>
@@ -6582,7 +6666,7 @@
         <v>-22144000</v>
       </c>
       <c r="Q99" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R99" s="25">
         <f>R86+R87</f>
@@ -6621,11 +6705,11 @@
         <v>-12218000</v>
       </c>
       <c r="Q100" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R100" s="33">
         <f>R99/R103</f>
-        <v>4.3561236225037794E-3</v>
+        <v>4.0292307473442975E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6660,11 +6744,11 @@
         <v>-14998000</v>
       </c>
       <c r="Q101" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R101" s="38" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>46414750000</v>
+        <v>50196870000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6699,11 +6783,11 @@
         <v>1921249000</v>
       </c>
       <c r="Q102" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R102" s="33">
         <f>R101/R103</f>
-        <v>0.99564387637749618</v>
+        <v>0.99597076925265571</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6738,11 +6822,11 @@
         <v>4616094000</v>
       </c>
       <c r="Q103" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R103" s="39">
         <f>R99+R101</f>
-        <v>46617823000</v>
+        <v>50399943000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6776,118 +6860,139 @@
       <c r="J104" s="11">
         <v>6522345000</v>
       </c>
-      <c r="Q104" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="R104" s="71"/>
+      <c r="Q104" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="R104" s="73"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-6.7140415452153546E-2</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.34593571341685925</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>7.0854444500929148E-2</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.95268035636106618</v>
-      </c>
-      <c r="G105" s="15">
-        <f t="shared" ref="G105:J105" si="20">(G106/F106)-1</f>
-        <v>0.37629087372871051</v>
-      </c>
-      <c r="H105" s="15">
+        <v>160</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:I105" si="20">(B22*(1-$R$91))+B77+B88+B81</f>
+        <v>138864647.53666839</v>
+      </c>
+      <c r="C105" s="1">
         <f t="shared" si="20"/>
-        <v>0.95242945970135184</v>
-      </c>
-      <c r="I105" s="15">
+        <v>129016771.40111169</v>
+      </c>
+      <c r="D105" s="1">
         <f t="shared" si="20"/>
-        <v>0.77511045433297654</v>
-      </c>
-      <c r="J105" s="15">
+        <v>120725584.22402605</v>
+      </c>
+      <c r="E105" s="1">
         <f t="shared" si="20"/>
-        <v>0.13206478649903719</v>
-      </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
+        <v>210135783.63206738</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>352539162.91412622</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>505515974.78207111</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>985793855.35272658</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>1765547718.5074317</v>
+      </c>
+      <c r="J105" s="1">
+        <f>(J22*(1-$R$91))+J77+J88+J81</f>
+        <v>1903445558.4153628</v>
+      </c>
+      <c r="K105" s="40">
+        <f>J105*(1+$R$106)</f>
+        <v>2312525824.0892701</v>
+      </c>
+      <c r="L105" s="40">
+        <f t="shared" ref="L105:O105" si="21">K105*(1+$R$106)</f>
+        <v>2809523846.6036472</v>
+      </c>
+      <c r="M105" s="40">
+        <f t="shared" si="21"/>
+        <v>3413334529.0287428</v>
+      </c>
+      <c r="N105" s="40">
+        <f t="shared" si="21"/>
+        <v>4146913585.070385</v>
+      </c>
+      <c r="O105" s="40">
+        <f t="shared" si="21"/>
+        <v>5038150270.8832512</v>
+      </c>
+      <c r="P105" s="41" t="s">
+        <v>163</v>
+      </c>
       <c r="Q105" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>9.8002248804440431E-2</v>
+        <v>9.8916165163853972E-2</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>141003000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>131536000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>177039000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>189583000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>370195000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>509496000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>994755000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>1765800000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>1999000000</v>
-      </c>
-      <c r="K106" s="40">
-        <f>J106*(1+$R$106)</f>
-        <v>2428616411.9150991</v>
-      </c>
-      <c r="L106" s="40">
-        <f t="shared" ref="L106:O106" si="21">K106*(1+$R$106)</f>
-        <v>2950564120.171771</v>
-      </c>
-      <c r="M106" s="40">
-        <f t="shared" si="21"/>
-        <v>3584686566.611805</v>
-      </c>
-      <c r="N106" s="40">
-        <f t="shared" si="21"/>
-        <v>4355091859.5522852</v>
-      </c>
-      <c r="O106" s="40">
-        <f t="shared" si="21"/>
-        <v>5291069317.4119701</v>
+      <c r="A106" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:J106" si="22">(C107/B107)-1</f>
+        <v>-6.7140415452153546E-2</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.34593571341685925</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="22"/>
+        <v>7.0854444500929148E-2</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.95268035636106618</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.37629087372871051</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.95242945970135184</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.77511045433297654</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.13206478649903719</v>
+      </c>
+      <c r="K106" s="65">
+        <v>1000000000</v>
+      </c>
+      <c r="L106" s="65">
+        <v>1100000000</v>
+      </c>
+      <c r="M106" s="65">
+        <v>1504000000</v>
+      </c>
+      <c r="N106" s="65">
+        <v>1948000000</v>
+      </c>
+      <c r="O106" s="65">
+        <v>2310000000</v>
       </c>
       <c r="P106" s="41" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q106" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R106" s="43">
         <f>(SUM(K4:O4)/5)</f>
@@ -6895,84 +7000,104 @@
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
+      <c r="A107" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1">
+        <v>141003000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>131536000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>177039000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>189583000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>370195000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>509496000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>994755000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1765800000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1999000000</v>
+      </c>
       <c r="K107" s="41"/>
       <c r="L107" s="41"/>
       <c r="M107" s="41"/>
       <c r="N107" s="41"/>
-      <c r="O107" s="44">
+      <c r="O107" s="66">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>74290123101.21315</v>
-      </c>
-      <c r="P107" s="45" t="s">
+        <v>32032911809.632988</v>
+      </c>
+      <c r="P107" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q107" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="R107" s="46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="K108" s="66">
+        <f t="shared" ref="K108:N108" si="23">K107+K106</f>
+        <v>1000000000</v>
+      </c>
+      <c r="L108" s="66">
+        <f t="shared" si="23"/>
+        <v>1100000000</v>
+      </c>
+      <c r="M108" s="66">
+        <f t="shared" si="23"/>
+        <v>1504000000</v>
+      </c>
+      <c r="N108" s="66">
+        <f t="shared" si="23"/>
+        <v>1948000000</v>
+      </c>
+      <c r="O108" s="66">
+        <f>O107+O106</f>
+        <v>34342911809.632988</v>
+      </c>
+      <c r="P108" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q108" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="R108" s="48">
+        <f>R105</f>
+        <v>9.8916165163853972E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="K109" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="Q107" s="46" t="s">
+      <c r="L109" s="69"/>
+    </row>
+    <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K110" s="49" t="s">
         <v>149</v>
-      </c>
-      <c r="R107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K108" s="44">
-        <f t="shared" ref="K108:M108" si="22">K107+K106</f>
-        <v>2428616411.9150991</v>
-      </c>
-      <c r="L108" s="44">
-        <f t="shared" si="22"/>
-        <v>2950564120.171771</v>
-      </c>
-      <c r="M108" s="44">
-        <f t="shared" si="22"/>
-        <v>3584686566.611805</v>
-      </c>
-      <c r="N108" s="44">
-        <f>N107+N106</f>
-        <v>4355091859.5522852</v>
-      </c>
-      <c r="O108" s="44">
-        <f>O107+O106</f>
-        <v>79581192418.625122</v>
-      </c>
-      <c r="P108" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q108" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="R108" s="49">
-        <f>R105</f>
-        <v>9.8002248804440431E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="L109" s="67"/>
-    </row>
-    <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K110" s="50" t="s">
-        <v>152</v>
       </c>
       <c r="L110" s="38">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>60228287916.978096</v>
+        <v>25719575552.372047</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K111" s="50" t="s">
-        <v>153</v>
+      <c r="K111" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="L111" s="38">
         <f>J40</f>
@@ -6980,8 +7105,8 @@
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K112" s="50" t="s">
-        <v>140</v>
+      <c r="K112" s="49" t="s">
+        <v>138</v>
       </c>
       <c r="L112" s="38">
         <f>R99</f>
@@ -6989,57 +7114,57 @@
       </c>
     </row>
     <row r="113" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K113" s="50" t="s">
-        <v>154</v>
+      <c r="K113" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="L113" s="38">
         <f>L110+L111-L112</f>
-        <v>65990012916.978096</v>
+        <v>31481300552.372047</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K114" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="L114" s="51">
+      <c r="K114" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="L114" s="50">
         <f>J34*(1+(5*P16))</f>
         <v>31444645.352630943</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K115" s="52" t="s">
+      <c r="K115" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="L115" s="52">
+        <f>L113/L114</f>
+        <v>1001.1657056179213</v>
+      </c>
+    </row>
+    <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K116" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="L116" s="53" cm="1">
+        <f t="array" ref="L116">_FV(A1,"Price")</f>
+        <v>1579.8</v>
+      </c>
+    </row>
+    <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K117" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="L117" s="55">
+        <f>L115/L116-1</f>
+        <v>-0.36627060031781156</v>
+      </c>
+    </row>
+    <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K118" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="L115" s="53">
-        <f>L113/L114</f>
-        <v>2098.6089102593987</v>
-      </c>
-    </row>
-    <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K116" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="L116" s="54" cm="1">
-        <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>1510.8</v>
-      </c>
-    </row>
-    <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K117" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="L117" s="56">
-        <f>L115/L116-1</f>
-        <v>0.38907129352621039</v>
-      </c>
-    </row>
-    <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K118" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="L118" s="57" t="str">
+      <c r="L118" s="56" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
@@ -7071,9 +7196,10 @@
     <hyperlink ref="I74" r:id="rId17" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="J36" r:id="rId18" tooltip="https://sec.gov" xr:uid="{55CACCD9-52D9-E54B-BB47-F0004C13DCB7}"/>
     <hyperlink ref="J74" r:id="rId19" tooltip="https://sec.gov" xr:uid="{021651E5-B64B-6B4D-AEE7-3D1CDABACF0D}"/>
-    <hyperlink ref="K1" r:id="rId20" display="https://finbox.com/ENXTAM:ADYEN/explorer/total_rev" xr:uid="{A2CAAA8B-B36F-3E4E-9B1A-027FF9D13D05}"/>
+    <hyperlink ref="K1" r:id="rId20" display="https://finbox.com/ENXTAM:ADYEN/explorer/revenue_proj/" xr:uid="{A2CAAA8B-B36F-3E4E-9B1A-027FF9D13D05}"/>
+    <hyperlink ref="P106" r:id="rId21" xr:uid="{C88F5793-6C9E-174F-BC02-3887840C2D1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE49B3AA-E3EC-B94B-B649-046B38A89644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620C1B1-C86A-B94A-B596-3D62EF33AB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,18 +568,25 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -920,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1068,6 +1075,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2200,11 +2213,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2221,20 +2236,22 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7280000000000001E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2361,10 +2378,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1893</v>
-    <v>1148</v>
-    <v>1.3239000000000001</v>
-    <v>-39.4</v>
-    <v>-2.4333E-2</v>
+    <v>1192.8</v>
+    <v>1.3220000000000001</v>
+    <v>-7.4</v>
+    <v>-4.8050000000000002E-3</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3332</v>
@@ -2372,24 +2389,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1637.8</v>
+    <v>1548</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45093.666666666664</v>
+    <v>45103.478452175783</v>
     <v>0</v>
-    <v>1577.2</v>
-    <v>50196870000</v>
+    <v>1514.6</v>
+    <v>47747790000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1635</v>
-    <v>88.907899999999998</v>
-    <v>1619.2</v>
-    <v>1579.8</v>
+    <v>1546.2</v>
+    <v>84.570099999999996</v>
+    <v>1540.2</v>
+    <v>1532.8</v>
     <v>31001030</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>125609</v>
-    <v>49940</v>
+    <v>12562</v>
+    <v>61320</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2957,10 +2974,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L94" sqref="L94"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3709,15 +3726,15 @@
       </c>
       <c r="Q16" s="62">
         <f>R101/J3</f>
-        <v>5.6175888946547996</v>
+        <v>5.3435095624151367</v>
       </c>
       <c r="R16" s="62">
         <f>R101/J28</f>
-        <v>88.979613180439571</v>
+        <v>84.638342677957027</v>
       </c>
       <c r="S16" s="63">
         <f>R101/J107</f>
-        <v>25.110990495247623</v>
+        <v>23.885837918959481</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -3848,15 +3865,15 @@
       </c>
       <c r="Q19" s="62">
         <f>R101/K3</f>
-        <v>4.3273163793103446</v>
+        <v>4.116188793103448</v>
       </c>
       <c r="R19" s="64">
         <f>R101/K28</f>
-        <v>72.402812635222844</v>
+        <v>68.870315880571184</v>
       </c>
       <c r="S19" s="63">
         <f>R101/K105</f>
-        <v>21.706512194201668</v>
+        <v>20.647462399173104</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,7 +3934,7 @@
         <v>0.23232799245994351</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3969,6 +3986,12 @@
         <f t="shared" si="9"/>
         <v>0.11127659574468085</v>
       </c>
+      <c r="R21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -4000,6 +4023,14 @@
       </c>
       <c r="J22" s="10">
         <v>664675000</v>
+      </c>
+      <c r="R22" s="74">
+        <f>(-1*J98)/R101</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="75">
+        <f>J107/R101</f>
+        <v>4.186581200930975E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6479,7 +6510,7 @@
       </c>
       <c r="R94" s="36">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6518,7 +6549,7 @@
       </c>
       <c r="R95" s="37" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.3239000000000001</v>
+        <v>1.3220000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6595,7 +6626,7 @@
       </c>
       <c r="R97" s="35">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>9.9132608000000011E-2</v>
+        <v>9.9008420000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6626,8 +6657,8 @@
       <c r="I98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>91</v>
+      <c r="J98" s="1">
+        <v>0</v>
       </c>
       <c r="Q98" s="72" t="s">
         <v>137</v>
@@ -6709,7 +6740,7 @@
       </c>
       <c r="R100" s="33">
         <f>R99/R103</f>
-        <v>4.0292307473442975E-3</v>
+        <v>4.2350228399434644E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6748,7 +6779,7 @@
       </c>
       <c r="R101" s="38" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>50196870000</v>
+        <v>47747790000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6787,7 +6818,7 @@
       </c>
       <c r="R102" s="33">
         <f>R101/R103</f>
-        <v>0.99597076925265571</v>
+        <v>0.99576497716005652</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6826,7 +6857,7 @@
       </c>
       <c r="R103" s="39">
         <f>R99+R101</f>
-        <v>50399943000</v>
+        <v>47950863000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6933,7 +6964,7 @@
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>9.8916165163853972E-2</v>
+        <v>9.8781448331632035E-2</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7036,7 +7067,7 @@
       <c r="N107" s="41"/>
       <c r="O107" s="66">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>32032911809.632988</v>
+        <v>32091400393.191849</v>
       </c>
       <c r="P107" s="44" t="s">
         <v>145</v>
@@ -7067,7 +7098,7 @@
       </c>
       <c r="O108" s="66">
         <f>O107+O106</f>
-        <v>34342911809.632988</v>
+        <v>34401400393.191849</v>
       </c>
       <c r="P108" s="44" t="s">
         <v>142</v>
@@ -7077,7 +7108,7 @@
       </c>
       <c r="R108" s="48">
         <f>R105</f>
-        <v>9.8916165163853972E-2</v>
+        <v>9.8781448331632035E-2</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7092,7 +7123,7 @@
       </c>
       <c r="L110" s="38">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>25719575552.372047</v>
+        <v>25770641426.956921</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7119,7 +7150,7 @@
       </c>
       <c r="L113" s="38">
         <f>L110+L111-L112</f>
-        <v>31481300552.372047</v>
+        <v>31532366426.956921</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7137,7 +7168,7 @@
       </c>
       <c r="L115" s="52">
         <f>L113/L114</f>
-        <v>1001.1657056179213</v>
+        <v>1002.7896983204054</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7146,7 +7177,7 @@
       </c>
       <c r="L116" s="53" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>1579.8</v>
+        <v>1532.8</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7155,7 +7186,7 @@
       </c>
       <c r="L117" s="55">
         <f>L115/L116-1</f>
-        <v>-0.36627060031781156</v>
+        <v>-0.34577916341309667</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620C1B1-C86A-B94A-B596-3D62EF33AB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA2299-9E6C-F748-8797-6DFF0BDE8511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -749,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -855,62 +855,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -927,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -972,79 +919,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1058,29 +951,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1132,7 +1060,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ADYEN</a:t>
+              <a:t>Adyen</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1171,10 +1099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3574750830564787E-2"/>
-          <c:y val="0.11602246293119681"/>
-          <c:w val="0.85928239202657819"/>
-          <c:h val="0.7449713783323374"/>
+          <c:x val="9.6863787375415275E-2"/>
+          <c:y val="0.14055285798134959"/>
+          <c:w val="0.84599335548172772"/>
+          <c:h val="0.67444631990973947"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1576,8 +1504,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36100703691108377"/>
-          <c:y val="0.92586406153399092"/>
+          <c:x val="0.36366484422005391"/>
+          <c:y val="0.91053257929487919"/>
           <c:w val="0.30456399926753341"/>
           <c:h val="4.8245968429433246E-2"/>
         </c:manualLayout>
@@ -2161,13 +2089,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2239,7 +2167,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2378,10 +2306,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1893</v>
-    <v>1192.8</v>
-    <v>1.3220000000000001</v>
-    <v>-7.4</v>
-    <v>-4.8050000000000002E-3</v>
+    <v>1198</v>
+    <v>1.3201000000000001</v>
+    <v>17</v>
+    <v>1.0835999999999998E-2</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3332</v>
@@ -2389,24 +2317,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1548</v>
+    <v>1594</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45103.478452175783</v>
+    <v>45107.666666666664</v>
     <v>0</v>
-    <v>1514.6</v>
-    <v>47747790000</v>
+    <v>1528.6</v>
+    <v>48634420000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1546.2</v>
-    <v>84.570099999999996</v>
-    <v>1540.2</v>
-    <v>1532.8</v>
+    <v>1550.2</v>
+    <v>86.140500000000003</v>
+    <v>1568.8</v>
+    <v>1585.8</v>
     <v>31001030</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>12562</v>
-    <v>61320</v>
+    <v>80687</v>
+    <v>62610</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2974,10 +2902,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3018,19 +2946,19 @@
       <c r="J1" s="8">
         <v>2022</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2023</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="24">
         <v>2024</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="24">
         <v>2025</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="24">
         <v>2026</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -3112,19 +3040,19 @@
       <c r="J3" s="1">
         <v>8935661000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="25">
         <v>11600000000</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="25">
         <v>14500000000</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="25">
         <v>17800000000</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="25">
         <v>21000000000</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="25">
         <v>23500000000</v>
       </c>
       <c r="P3" s="19" t="s">
@@ -3720,21 +3648,21 @@
         <v>5400688000</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="P16" s="30">
+      <c r="P16" s="26">
         <f>(J35+I35+H35+G35+F35)/5</f>
         <v>2.567905561326001E-3</v>
       </c>
-      <c r="Q16" s="62">
+      <c r="Q16" s="36">
         <f>R101/J3</f>
-        <v>5.3435095624151367</v>
-      </c>
-      <c r="R16" s="62">
+        <v>5.4427333355640952</v>
+      </c>
+      <c r="R16" s="36">
         <f>R101/J28</f>
-        <v>84.638342677957027</v>
-      </c>
-      <c r="S16" s="63">
+        <v>86.209994345365232</v>
+      </c>
+      <c r="S16" s="37">
         <f>R101/J107</f>
-        <v>23.885837918959481</v>
+        <v>24.329374687343673</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -3844,36 +3772,36 @@
       <c r="J19" s="10">
         <v>693000000</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="31">
         <v>835400000</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="31">
         <v>1174000000</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="31">
         <v>1608000000</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="31">
         <v>2122000000</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="31">
         <v>2615000000</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="27">
         <f>J40-J56-J61</f>
         <v>5761725000</v>
       </c>
-      <c r="Q19" s="62">
+      <c r="Q19" s="36">
         <f>R101/K3</f>
-        <v>4.116188793103448</v>
-      </c>
-      <c r="R19" s="64">
+        <v>4.1926224137931039</v>
+      </c>
+      <c r="R19" s="38">
         <f>R101/K28</f>
-        <v>68.870315880571184</v>
-      </c>
-      <c r="S19" s="63">
+        <v>70.149170633203525</v>
+      </c>
+      <c r="S19" s="37">
         <f>R101/K105</f>
-        <v>20.647462399173104</v>
+        <v>21.030865685209566</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3966,23 +3894,23 @@
         <f>J19/J3</f>
         <v>7.755441930932698E-2</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="32">
         <f t="shared" ref="K21:O21" si="9">K19/K3</f>
         <v>7.2017241379310343E-2</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="32">
         <f t="shared" si="9"/>
         <v>8.0965517241379306E-2</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="32">
         <f t="shared" si="9"/>
         <v>9.0337078651685387E-2</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="32">
         <f t="shared" si="9"/>
         <v>0.10104761904761905</v>
       </c>
-      <c r="O21" s="58">
+      <c r="O21" s="32">
         <f t="shared" si="9"/>
         <v>0.11127659574468085</v>
       </c>
@@ -4024,13 +3952,13 @@
       <c r="J22" s="10">
         <v>664675000</v>
       </c>
-      <c r="R22" s="74">
+      <c r="R22" s="42">
         <f>(-1*J98)/R101</f>
         <v>0</v>
       </c>
-      <c r="S22" s="75">
+      <c r="S22" s="43">
         <f>J107/R101</f>
-        <v>4.186581200930975E-2</v>
+        <v>4.1102577145980153E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4227,19 +4155,19 @@
       <c r="J28" s="11">
         <v>564139000</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="34">
         <v>693300000</v>
       </c>
-      <c r="L28" s="60">
+      <c r="L28" s="34">
         <v>952500000</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M28" s="34">
         <v>1321000000</v>
       </c>
-      <c r="N28" s="60">
+      <c r="N28" s="34">
         <v>1691000000</v>
       </c>
-      <c r="O28" s="60">
+      <c r="O28" s="34">
         <v>1916000000</v>
       </c>
     </row>
@@ -4333,23 +4261,23 @@
         <f>J28/J3</f>
         <v>6.3133438029934222E-2</v>
       </c>
-      <c r="K30" s="61">
+      <c r="K30" s="35">
         <f t="shared" ref="K30:O30" si="16">K28/K3</f>
         <v>5.9767241379310346E-2</v>
       </c>
-      <c r="L30" s="61">
+      <c r="L30" s="35">
         <f t="shared" si="16"/>
         <v>6.5689655172413791E-2</v>
       </c>
-      <c r="M30" s="61">
+      <c r="M30" s="35">
         <f t="shared" si="16"/>
         <v>7.4213483146067419E-2</v>
       </c>
-      <c r="N30" s="61">
+      <c r="N30" s="35">
         <f t="shared" si="16"/>
         <v>8.0523809523809525E-2</v>
       </c>
-      <c r="O30" s="61">
+      <c r="O30" s="35">
         <f t="shared" si="16"/>
         <v>8.1531914893617025E-2</v>
       </c>
@@ -4385,19 +4313,19 @@
       <c r="J31" s="12">
         <v>18.21</v>
       </c>
-      <c r="K31" s="59">
+      <c r="K31" s="33">
         <v>22.37</v>
       </c>
-      <c r="L31" s="59">
+      <c r="L31" s="33">
         <v>30.74</v>
       </c>
-      <c r="M31" s="59">
+      <c r="M31" s="33">
         <v>42.62</v>
       </c>
-      <c r="N31" s="59">
+      <c r="N31" s="33">
         <v>54.58</v>
       </c>
-      <c r="O31" s="59">
+      <c r="O31" s="33">
         <v>61.83</v>
       </c>
     </row>
@@ -6078,10 +6006,10 @@
         <v>-3851000</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="Q83" s="70" t="s">
+      <c r="Q83" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="R83" s="71"/>
+      <c r="R83" s="67"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6114,10 +6042,10 @@
       <c r="J84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q84" s="72" t="s">
+      <c r="Q84" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R84" s="73"/>
+      <c r="R84" s="68"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6150,10 +6078,10 @@
       <c r="J85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q85" s="24" t="s">
+      <c r="Q85" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="R85" s="25">
+      <c r="R85" s="45">
         <f>J17</f>
         <v>11963000</v>
       </c>
@@ -6187,10 +6115,10 @@
         <v>-13912000</v>
       </c>
       <c r="J86" s="1"/>
-      <c r="Q86" s="24" t="s">
+      <c r="Q86" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="R86" s="25">
+      <c r="R86" s="45">
         <f>J56</f>
         <v>33200000</v>
       </c>
@@ -6226,10 +6154,10 @@
       <c r="J87" s="10">
         <v>2029379000</v>
       </c>
-      <c r="Q87" s="24" t="s">
+      <c r="Q87" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="R87" s="25">
+      <c r="R87" s="45">
         <f>J61</f>
         <v>169873000</v>
       </c>
@@ -6265,10 +6193,10 @@
       <c r="J88" s="1">
         <v>-95575000</v>
       </c>
-      <c r="Q88" s="32" t="s">
+      <c r="Q88" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="R88" s="33">
+      <c r="R88" s="47">
         <f>R85/(R86+R87)</f>
         <v>5.8909850152408245E-2</v>
       </c>
@@ -6313,10 +6241,10 @@
         <f t="shared" si="19"/>
         <v>1.0695907107487627E-2</v>
       </c>
-      <c r="Q89" s="24" t="s">
+      <c r="Q89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="R89" s="25">
+      <c r="R89" s="45">
         <f>J27</f>
         <v>149690000</v>
       </c>
@@ -6352,10 +6280,10 @@
       <c r="J90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q90" s="24" t="s">
+      <c r="Q90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="R90" s="25">
+      <c r="R90" s="45">
         <f>J25</f>
         <v>653424000</v>
       </c>
@@ -6391,10 +6319,10 @@
       <c r="J91" s="1">
         <v>0</v>
       </c>
-      <c r="Q91" s="32" t="s">
+      <c r="Q91" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="R91" s="33">
+      <c r="R91" s="47">
         <f>R89/R90</f>
         <v>0.22908555547393422</v>
       </c>
@@ -6430,10 +6358,10 @@
       <c r="J92" s="1">
         <v>0</v>
       </c>
-      <c r="Q92" s="34" t="s">
+      <c r="Q92" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="R92" s="35">
+      <c r="R92" s="47">
         <f>R88*(1-R91)</f>
         <v>4.5414454407357578E-2</v>
       </c>
@@ -6469,10 +6397,10 @@
       <c r="J93" s="1">
         <v>-3523000</v>
       </c>
-      <c r="Q93" s="72" t="s">
+      <c r="Q93" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="R93" s="73"/>
+      <c r="R93" s="68"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6505,12 +6433,12 @@
       <c r="J94" s="10">
         <v>-87691000</v>
       </c>
-      <c r="Q94" s="24" t="s">
+      <c r="Q94" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="R94" s="36">
+      <c r="R94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6544,12 +6472,12 @@
       <c r="J95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q95" s="24" t="s">
+      <c r="Q95" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="R95" s="37" cm="1">
+      <c r="R95" s="49" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.3220000000000001</v>
+        <v>1.3201000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6583,10 +6511,10 @@
       <c r="J96" s="1">
         <v>9926000</v>
       </c>
-      <c r="Q96" s="24" t="s">
+      <c r="Q96" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="R96" s="36">
+      <c r="R96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6621,12 +6549,12 @@
       <c r="J97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q97" s="34" t="s">
+      <c r="Q97" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="R97" s="35">
+      <c r="R97" s="47">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>9.9008420000000014E-2</v>
+        <v>9.855174600000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6660,10 +6588,10 @@
       <c r="J98" s="1">
         <v>0</v>
       </c>
-      <c r="Q98" s="72" t="s">
+      <c r="Q98" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="R98" s="73"/>
+      <c r="R98" s="68"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6696,10 +6624,10 @@
       <c r="J99" s="1">
         <v>-22144000</v>
       </c>
-      <c r="Q99" s="24" t="s">
+      <c r="Q99" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="R99" s="25">
+      <c r="R99" s="45">
         <f>R86+R87</f>
         <v>203073000</v>
       </c>
@@ -6735,12 +6663,12 @@
       <c r="J100" s="10">
         <v>-12218000</v>
       </c>
-      <c r="Q100" s="32" t="s">
+      <c r="Q100" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="R100" s="33">
+      <c r="R100" s="47">
         <f>R99/R103</f>
-        <v>4.2350228399434644E-3</v>
+        <v>4.1581372737539988E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6774,12 +6702,12 @@
       <c r="J101" s="1">
         <v>-14998000</v>
       </c>
-      <c r="Q101" s="24" t="s">
+      <c r="Q101" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="R101" s="38" cm="1">
+      <c r="R101" s="50" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>47747790000</v>
+        <v>48634420000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6813,12 +6741,12 @@
       <c r="J102" s="10">
         <v>1921249000</v>
       </c>
-      <c r="Q102" s="32" t="s">
+      <c r="Q102" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="R102" s="33">
+      <c r="R102" s="47">
         <f>R101/R103</f>
-        <v>0.99576497716005652</v>
+        <v>0.99584186272624597</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6852,12 +6780,12 @@
       <c r="J103" s="1">
         <v>4616094000</v>
       </c>
-      <c r="Q103" s="34" t="s">
+      <c r="Q103" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="R103" s="39">
+      <c r="R103" s="51">
         <f>R99+R101</f>
-        <v>47950863000</v>
+        <v>48837493000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6891,10 +6819,10 @@
       <c r="J104" s="11">
         <v>6522345000</v>
       </c>
-      <c r="Q104" s="72" t="s">
+      <c r="Q104" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="R104" s="73"/>
+      <c r="R104" s="68"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6936,35 +6864,35 @@
         <f>(J22*(1-$R$91))+J77+J88+J81</f>
         <v>1903445558.4153628</v>
       </c>
-      <c r="K105" s="40">
+      <c r="K105" s="28">
         <f>J105*(1+$R$106)</f>
         <v>2312525824.0892701</v>
       </c>
-      <c r="L105" s="40">
+      <c r="L105" s="28">
         <f t="shared" ref="L105:O105" si="21">K105*(1+$R$106)</f>
         <v>2809523846.6036472</v>
       </c>
-      <c r="M105" s="40">
+      <c r="M105" s="28">
         <f t="shared" si="21"/>
         <v>3413334529.0287428</v>
       </c>
-      <c r="N105" s="40">
+      <c r="N105" s="28">
         <f t="shared" si="21"/>
         <v>4146913585.070385</v>
       </c>
-      <c r="O105" s="40">
+      <c r="O105" s="28">
         <f t="shared" si="21"/>
         <v>5038150270.8832512</v>
       </c>
-      <c r="P105" s="41" t="s">
+      <c r="P105" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="Q105" s="26" t="s">
+      <c r="Q105" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="R105" s="27">
+      <c r="R105" s="53">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>9.8781448331632035E-2</v>
+        <v>9.8330793847202308E-2</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7004,34 +6932,34 @@
         <f t="shared" si="22"/>
         <v>0.13206478649903719</v>
       </c>
-      <c r="K106" s="65">
+      <c r="K106" s="39">
         <v>1000000000</v>
       </c>
-      <c r="L106" s="65">
+      <c r="L106" s="39">
         <v>1100000000</v>
       </c>
-      <c r="M106" s="65">
+      <c r="M106" s="39">
         <v>1504000000</v>
       </c>
-      <c r="N106" s="65">
+      <c r="N106" s="39">
         <v>1948000000</v>
       </c>
-      <c r="O106" s="65">
+      <c r="O106" s="39">
         <v>2310000000</v>
       </c>
-      <c r="P106" s="41" t="s">
+      <c r="P106" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="Q106" s="42" t="s">
+      <c r="Q106" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R106" s="43">
+      <c r="R106" s="55">
         <f>(SUM(K4:O4)/5)</f>
         <v>0.21491566378944435</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="41" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1">
@@ -7061,139 +6989,139 @@
       <c r="J107" s="1">
         <v>1999000000</v>
       </c>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="66">
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="40">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>32091400393.191849</v>
-      </c>
-      <c r="P107" s="44" t="s">
+        <v>32288618134.062836</v>
+      </c>
+      <c r="P107" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="Q107" s="45" t="s">
+      <c r="Q107" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="R107" s="46">
+      <c r="R107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K108" s="66">
+      <c r="K108" s="40">
         <f t="shared" ref="K108:N108" si="23">K107+K106</f>
         <v>1000000000</v>
       </c>
-      <c r="L108" s="66">
+      <c r="L108" s="40">
         <f t="shared" si="23"/>
         <v>1100000000</v>
       </c>
-      <c r="M108" s="66">
+      <c r="M108" s="40">
         <f t="shared" si="23"/>
         <v>1504000000</v>
       </c>
-      <c r="N108" s="66">
+      <c r="N108" s="40">
         <f t="shared" si="23"/>
         <v>1948000000</v>
       </c>
-      <c r="O108" s="66">
+      <c r="O108" s="40">
         <f>O107+O106</f>
-        <v>34401400393.191849</v>
-      </c>
-      <c r="P108" s="44" t="s">
+        <v>34598618134.062836</v>
+      </c>
+      <c r="P108" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="Q108" s="47" t="s">
+      <c r="Q108" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="R108" s="48">
+      <c r="R108" s="55">
         <f>R105</f>
-        <v>9.8781448331632035E-2</v>
+        <v>9.8330793847202308E-2</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="68" t="s">
+      <c r="K109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="L109" s="69"/>
+      <c r="L109" s="65"/>
     </row>
     <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K110" s="49" t="s">
+      <c r="K110" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="L110" s="38">
+      <c r="L110" s="50">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>25770641426.956921</v>
+        <v>25942845404.317596</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K111" s="49" t="s">
+      <c r="K111" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="L111" s="38">
+      <c r="L111" s="50">
         <f>J40</f>
         <v>5964798000</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K112" s="49" t="s">
+      <c r="K112" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="L112" s="38">
+      <c r="L112" s="50">
         <f>R99</f>
         <v>203073000</v>
       </c>
     </row>
     <row r="113" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K113" s="49" t="s">
+      <c r="K113" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="L113" s="38">
+      <c r="L113" s="50">
         <f>L110+L111-L112</f>
-        <v>31532366426.956921</v>
+        <v>31704570404.317596</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K114" s="49" t="s">
+      <c r="K114" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="L114" s="50">
+      <c r="L114" s="59">
         <f>J34*(1+(5*P16))</f>
         <v>31444645.352630943</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K115" s="51" t="s">
+      <c r="K115" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="L115" s="52">
+      <c r="L115" s="61">
         <f>L113/L114</f>
-        <v>1002.7896983204054</v>
+        <v>1008.2661149067437</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K116" s="49" t="s">
+      <c r="K116" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="L116" s="53" cm="1">
+      <c r="L116" s="62" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>1532.8</v>
+        <v>1585.8</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K117" s="54" t="s">
+      <c r="K117" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="L117" s="55">
+      <c r="L117" s="63">
         <f>L115/L116-1</f>
-        <v>-0.34577916341309667</v>
+        <v>-0.36419087217382784</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K118" s="54" t="s">
+      <c r="K118" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="L118" s="56" t="str">
+      <c r="L118" s="64" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA2299-9E6C-F748-8797-6DFF0BDE8511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5473C5FD-CE5A-A744-9CCB-6043A4C068E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2132,7 +2132,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2146,10 +2145,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2163,14 +2164,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2180,6 +2181,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2307,9 +2309,9 @@
     <v>Powered by Refinitiv</v>
     <v>1893</v>
     <v>1198</v>
-    <v>1.3201000000000001</v>
-    <v>17</v>
-    <v>1.0835999999999998E-2</v>
+    <v>1.3108</v>
+    <v>-4.2</v>
+    <v>-2.8649999999999999E-3</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3332</v>
@@ -2317,24 +2319,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1594</v>
+    <v>1483.4</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45107.666666666664</v>
+    <v>45114.666666666664</v>
     <v>0</v>
-    <v>1528.6</v>
-    <v>48634420000</v>
+    <v>1450</v>
+    <v>45337710000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1550.2</v>
-    <v>86.140500000000003</v>
-    <v>1568.8</v>
-    <v>1585.8</v>
-    <v>31001030</v>
+    <v>1470</v>
+    <v>80.506900000000002</v>
+    <v>1466.2</v>
+    <v>1462</v>
+    <v>31010750</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>80687</v>
-    <v>62610</v>
+    <v>53266</v>
+    <v>60450</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2902,10 +2904,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3654,15 +3656,15 @@
       </c>
       <c r="Q16" s="36">
         <f>R101/J3</f>
-        <v>5.4427333355640952</v>
+        <v>5.0737947645954788</v>
       </c>
       <c r="R16" s="36">
         <f>R101/J28</f>
-        <v>86.209994345365232</v>
+        <v>80.366204073818693</v>
       </c>
       <c r="S16" s="37">
         <f>R101/J107</f>
-        <v>24.329374687343673</v>
+        <v>22.680195097548776</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -3793,15 +3795,15 @@
       </c>
       <c r="Q19" s="36">
         <f>R101/K3</f>
-        <v>4.1926224137931039</v>
+        <v>3.9084232758620692</v>
       </c>
       <c r="R19" s="38">
         <f>R101/K28</f>
-        <v>70.149170633203525</v>
+        <v>65.394071830376461</v>
       </c>
       <c r="S19" s="37">
         <f>R101/K105</f>
-        <v>21.030865685209566</v>
+        <v>19.605277280678632</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3958,7 +3960,7 @@
       </c>
       <c r="S22" s="43">
         <f>J107/R101</f>
-        <v>4.1102577145980153E-2</v>
+        <v>4.4091331476600826E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6438,7 +6440,7 @@
       </c>
       <c r="R94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6477,7 +6479,7 @@
       </c>
       <c r="R95" s="49" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.3201000000000001</v>
+        <v>1.3108</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6554,7 +6556,7 @@
       </c>
       <c r="R97" s="47">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>9.855174600000001E-2</v>
+        <v>9.7547772000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6668,7 +6670,7 @@
       </c>
       <c r="R100" s="47">
         <f>R99/R103</f>
-        <v>4.1581372737539988E-3</v>
+        <v>4.4591459922856402E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6707,7 +6709,7 @@
       </c>
       <c r="R101" s="50" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>48634420000</v>
+        <v>45337710000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6746,7 +6748,7 @@
       </c>
       <c r="R102" s="47">
         <f>R101/R103</f>
-        <v>0.99584186272624597</v>
+        <v>0.99554085400771442</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6785,7 +6787,7 @@
       </c>
       <c r="R103" s="51">
         <f>R99+R101</f>
-        <v>48837493000</v>
+        <v>45540783000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6892,7 +6894,7 @@
       </c>
       <c r="R105" s="53">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>9.8330793847202308E-2</v>
+        <v>9.7315301925792227E-2</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6995,7 +6997,7 @@
       <c r="N107" s="29"/>
       <c r="O107" s="40">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>32288618134.062836</v>
+        <v>32742032971.523975</v>
       </c>
       <c r="P107" s="30" t="s">
         <v>145</v>
@@ -7026,7 +7028,7 @@
       </c>
       <c r="O108" s="40">
         <f>O107+O106</f>
-        <v>34598618134.062836</v>
+        <v>35052032971.523972</v>
       </c>
       <c r="P108" s="30" t="s">
         <v>142</v>
@@ -7036,7 +7038,7 @@
       </c>
       <c r="R108" s="55">
         <f>R105</f>
-        <v>9.8330793847202308E-2</v>
+        <v>9.7315301925792227E-2</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7051,7 +7053,7 @@
       </c>
       <c r="L110" s="50">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>25942845404.317596</v>
+        <v>26338837547.816505</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7078,7 +7080,7 @@
       </c>
       <c r="L113" s="50">
         <f>L110+L111-L112</f>
-        <v>31704570404.317596</v>
+        <v>32100562547.816505</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7096,7 +7098,7 @@
       </c>
       <c r="L115" s="61">
         <f>L113/L114</f>
-        <v>1008.2661149067437</v>
+        <v>1020.8594241668139</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7105,7 +7107,7 @@
       </c>
       <c r="L116" s="62" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>1585.8</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7114,7 +7116,7 @@
       </c>
       <c r="L117" s="63">
         <f>L115/L116-1</f>
-        <v>-0.36419087217382784</v>
+        <v>-0.30173773996797948</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5473C5FD-CE5A-A744-9CCB-6043A4C068E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD914A59-401F-5C43-933E-F123C8DE94DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2130,8 +2130,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2140,21 +2139,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2164,24 +2164,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2310,8 +2298,8 @@
     <v>1893</v>
     <v>1198</v>
     <v>1.3108</v>
-    <v>-4.2</v>
-    <v>-2.8649999999999999E-3</v>
+    <v>-2.2000000000000002</v>
+    <v>-1.4920000000000001E-3</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3332</v>
@@ -2319,24 +2307,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1483.4</v>
+    <v>1495.2</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45114.666666666664</v>
+    <v>45118.383587962962</v>
     <v>0</v>
-    <v>1450</v>
+    <v>1466.8</v>
     <v>45337710000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1470</v>
-    <v>80.506900000000002</v>
-    <v>1466.2</v>
-    <v>1462</v>
+    <v>1483.2</v>
+    <v>80.990099999999998</v>
+    <v>1475</v>
+    <v>1472.8</v>
     <v>31010750</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>53266</v>
-    <v>60450</v>
+    <v>7172</v>
+    <v>59300</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2904,10 +2892,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O104" sqref="O104"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6440,7 +6428,7 @@
       </c>
       <c r="R94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6556,7 +6544,7 @@
       </c>
       <c r="R97" s="47">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>9.7547772000000005E-2</v>
+        <v>9.7526016000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6894,7 +6882,7 @@
       </c>
       <c r="R105" s="53">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>9.7315301925792227E-2</v>
+        <v>9.7293642938972427E-2</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6997,7 +6985,7 @@
       <c r="N107" s="29"/>
       <c r="O107" s="40">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>32742032971.523975</v>
+        <v>32751842399.182537</v>
       </c>
       <c r="P107" s="30" t="s">
         <v>145</v>
@@ -7028,7 +7016,7 @@
       </c>
       <c r="O108" s="40">
         <f>O107+O106</f>
-        <v>35052032971.523972</v>
+        <v>35061842399.182541</v>
       </c>
       <c r="P108" s="30" t="s">
         <v>142</v>
@@ -7038,7 +7026,7 @@
       </c>
       <c r="R108" s="55">
         <f>R105</f>
-        <v>9.7315301925792227E-2</v>
+        <v>9.7293642938972427E-2</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7053,7 +7041,7 @@
       </c>
       <c r="L110" s="50">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>26338837547.816505</v>
+        <v>26347405952.670425</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7080,7 +7068,7 @@
       </c>
       <c r="L113" s="50">
         <f>L110+L111-L112</f>
-        <v>32100562547.816505</v>
+        <v>32109130952.670425</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7098,7 +7086,7 @@
       </c>
       <c r="L115" s="61">
         <f>L113/L114</f>
-        <v>1020.8594241668139</v>
+        <v>1021.131915866365</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7107,7 +7095,7 @@
       </c>
       <c r="L116" s="62" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>1462</v>
+        <v>1472.8</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7116,7 +7104,7 @@
       </c>
       <c r="L117" s="63">
         <f>L115/L116-1</f>
-        <v>-0.30173773996797948</v>
+        <v>-0.30667306092723723</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD914A59-401F-5C43-933E-F123C8DE94DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD267E-AE71-3042-84E3-228EE9AEE21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2140,6 +2140,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2151,7 +2152,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2170,6 +2171,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2297,9 +2299,9 @@
     <v>Powered by Refinitiv</v>
     <v>1893</v>
     <v>1198</v>
-    <v>1.3108</v>
-    <v>-2.2000000000000002</v>
-    <v>-1.4920000000000001E-3</v>
+    <v>1.2976000000000001</v>
+    <v>-15.2</v>
+    <v>-9.7029999999999998E-3</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3332</v>
@@ -2307,24 +2309,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1495.2</v>
+    <v>1570</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45118.383587962962</v>
+    <v>45132.666666666664</v>
     <v>0</v>
-    <v>1466.8</v>
-    <v>45337710000</v>
+    <v>1546.2</v>
+    <v>47924010000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1483.2</v>
-    <v>80.990099999999998</v>
-    <v>1475</v>
-    <v>1472.8</v>
+    <v>1570</v>
+    <v>86.0197</v>
+    <v>1566.6</v>
+    <v>1551.4</v>
     <v>31010750</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>7172</v>
-    <v>59300</v>
+    <v>46335</v>
+    <v>55780</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2892,10 +2894,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3644,15 +3646,15 @@
       </c>
       <c r="Q16" s="36">
         <f>R101/J3</f>
-        <v>5.0737947645954788</v>
+        <v>5.3632305433252228</v>
       </c>
       <c r="R16" s="36">
         <f>R101/J28</f>
-        <v>80.366204073818693</v>
+        <v>84.950712501706136</v>
       </c>
       <c r="S16" s="37">
         <f>R101/J107</f>
-        <v>22.680195097548776</v>
+        <v>23.973991995997999</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -3783,15 +3785,15 @@
       </c>
       <c r="Q19" s="36">
         <f>R101/K3</f>
-        <v>3.9084232758620692</v>
+        <v>4.1313801724137935</v>
       </c>
       <c r="R19" s="38">
         <f>R101/K28</f>
-        <v>65.394071830376461</v>
+        <v>69.124491562094335</v>
       </c>
       <c r="S19" s="37">
         <f>R101/K105</f>
-        <v>19.605277280678632</v>
+        <v>20.723664791450993</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3948,7 +3950,7 @@
       </c>
       <c r="S22" s="43">
         <f>J107/R101</f>
-        <v>4.4091331476600826E-2</v>
+        <v>4.1711868435049572E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6428,7 +6430,7 @@
       </c>
       <c r="R94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6467,7 +6469,7 @@
       </c>
       <c r="R95" s="49" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.3108</v>
+        <v>1.2976000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6544,7 +6546,7 @@
       </c>
       <c r="R97" s="47">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>9.7526016000000007E-2</v>
+        <v>9.7356288000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6658,7 +6660,7 @@
       </c>
       <c r="R100" s="47">
         <f>R99/R103</f>
-        <v>4.4591459922856402E-3</v>
+        <v>4.2195160674915622E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6697,7 +6699,7 @@
       </c>
       <c r="R101" s="50" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>45337710000</v>
+        <v>47924010000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6736,7 +6738,7 @@
       </c>
       <c r="R102" s="47">
         <f>R101/R103</f>
-        <v>0.99554085400771442</v>
+        <v>0.9957804839325084</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6775,7 +6777,7 @@
       </c>
       <c r="R103" s="51">
         <f>R99+R101</f>
-        <v>45540783000</v>
+        <v>48127083000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6882,7 +6884,7 @@
       </c>
       <c r="R105" s="53">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>9.7293642938972427E-2</v>
+        <v>9.7137118598580888E-2</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6985,7 +6987,7 @@
       <c r="N107" s="29"/>
       <c r="O107" s="40">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>32751842399.182537</v>
+        <v>32822907900.934368</v>
       </c>
       <c r="P107" s="30" t="s">
         <v>145</v>
@@ -7016,7 +7018,7 @@
       </c>
       <c r="O108" s="40">
         <f>O107+O106</f>
-        <v>35061842399.182541</v>
+        <v>35132907900.934372</v>
       </c>
       <c r="P108" s="30" t="s">
         <v>142</v>
@@ -7026,7 +7028,7 @@
       </c>
       <c r="R108" s="55">
         <f>R105</f>
-        <v>9.7293642938972427E-2</v>
+        <v>9.7137118598580888E-2</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7041,7 +7043,7 @@
       </c>
       <c r="L110" s="50">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>26347405952.670425</v>
+        <v>26409482335.224476</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7068,7 +7070,7 @@
       </c>
       <c r="L113" s="50">
         <f>L110+L111-L112</f>
-        <v>32109130952.670425</v>
+        <v>32171207335.224476</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7086,7 +7088,7 @@
       </c>
       <c r="L115" s="61">
         <f>L113/L114</f>
-        <v>1021.131915866365</v>
+        <v>1023.1060638288529</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7095,7 +7097,7 @@
       </c>
       <c r="L116" s="62" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>1472.8</v>
+        <v>1551.4</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
@@ -7104,7 +7106,7 @@
       </c>
       <c r="L117" s="63">
         <f>L115/L116-1</f>
-        <v>-0.30667306092723723</v>
+        <v>-0.34052722455275697</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD267E-AE71-3042-84E3-228EE9AEE21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F40EC6-76E8-7140-AD80-0F0BB5452216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,11 +50,18 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
@@ -64,16 +71,19 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -564,31 +574,35 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +714,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -874,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -927,11 +948,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -946,8 +962,6 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
@@ -960,55 +974,115 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1062,10 +1136,17 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Adyen</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45421411615146129"/>
+          <c:y val="2.9161607608245564E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1099,15 +1180,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6863787375415275E-2"/>
-          <c:y val="0.14055285798134959"/>
-          <c:w val="0.84599335548172772"/>
-          <c:h val="0.67444631990973947"/>
+          <c:x val="9.738385502471171E-2"/>
+          <c:y val="0.17020658307345995"/>
+          <c:w val="0.84199011532125212"/>
+          <c:h val="0.58982502270038528"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1156,12 +1237,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$J$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>153675000</c:v>
                 </c:pt>
@@ -1188,13 +1320,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8935661000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10812000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13352820000.000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16784494740.000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21098109888.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24621494239.506062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61D0-304E-8D5A-7F1748D01593}"/>
+              <c16:uniqueId val="{00000000-B1AB-DA49-811F-B0400F351746}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1203,11 +1350,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1245,45 +1392,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$J$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>15022000</c:v>
+                  <c:v>10864000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43268000</c:v>
+                  <c:v>33608000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123881000</c:v>
+                  <c:v>97230000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98935000</c:v>
+                  <c:v>71307000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174962000</c:v>
+                  <c:v>131146000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>284217000</c:v>
+                  <c:v>204039000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>361153000</c:v>
+                  <c:v>261019000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>628646000</c:v>
+                  <c:v>469717000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>693000000</c:v>
+                  <c:v>564139000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>620800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>780600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>984900000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1239000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1573000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-61D0-304E-8D5A-7F1748D01593}"/>
+              <c16:uniqueId val="{00000001-B1AB-DA49-811F-B0400F351746}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1334,12 +1547,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$J$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$O$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>141003000</c:v>
                 </c:pt>
@@ -1366,13 +1630,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1999000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>841200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1145000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1582000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-61D0-304E-8D5A-7F1748D01593}"/>
+              <c16:uniqueId val="{00000002-B1AB-DA49-811F-B0400F351746}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1384,13 +1663,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="920810976"/>
-        <c:axId val="920812976"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1717644368"/>
+        <c:axId val="1636782656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="920810976"/>
+        <c:axId val="1717644368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1697,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1430,7 +1709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="920812976"/>
+        <c:crossAx val="1636782656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1438,7 +1717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="920812976"/>
+        <c:axId val="1636782656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="920810976"/>
+        <c:crossAx val="1717644368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,10 +1783,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36366484422005391"/>
-          <c:y val="0.91053257929487919"/>
-          <c:w val="0.30456399926753341"/>
-          <c:h val="4.8245968429433246E-2"/>
+          <c:x val="0.34362671717106208"/>
+          <c:y val="0.88173832776677452"/>
+          <c:w val="0.31274646188172112"/>
+          <c:h val="6.6418814263011161E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1614,7 +1893,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1852,7 +2131,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2087,22 +2365,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11851DD-C07B-007E-365F-7454EB56DD68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B574ECC8-B7A5-DA8F-9D24-80FC4A158E8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,38 +2408,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2280,7 +2558,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=b1ao52&amp;q=XAMS%3aADYEN&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2297,46 +2575,78 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1893</v>
-    <v>1198</v>
-    <v>1.2976000000000001</v>
-    <v>-15.2</v>
-    <v>-9.7029999999999998E-3</v>
+    <v>1699.2</v>
+    <v>620.79999999999995</v>
+    <v>1.5569999999999999</v>
+    <v>0.5</v>
+    <v>7.1549999999999999E-4</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
-    <v>3332</v>
+    <v>3883</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>1570</v>
+    <v>704.2</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45132.666666666664</v>
+    <v>45218.666666666664</v>
     <v>0</v>
-    <v>1546.2</v>
-    <v>47924010000</v>
+    <v>690</v>
+    <v>21676790000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>1570</v>
-    <v>86.0197</v>
-    <v>1566.6</v>
-    <v>1551.4</v>
-    <v>31010750</v>
+    <v>691.8</v>
+    <v>38.418599999999998</v>
+    <v>698.8</v>
+    <v>699.3</v>
+    <v>31020010</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>46335</v>
-    <v>55780</v>
+    <v>51243</v>
+    <v>108770</v>
     <v>2006</v>
   </rv>
   <rv s="2">
     <v>1</v>
   </rv>
+  <rv s="3">
+    <v>5</v>
+    <v>USD/EUR</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>en-US</v>
+    <v>avyn9c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>1.0303</v>
+    <v>0.88670000000000004</v>
+    <v>8.9999999999999998E-4</v>
+    <v>9.526999999999999E-4</v>
+    <v>EUR</v>
+    <v>USD</v>
+    <v>0.94620000000000004</v>
+    <v>Currency Pair</v>
+    <v>45219.185231481482</v>
+    <v>0.9446</v>
+    <v>US Dollar/Euro FX Cross Rate</v>
+    <v>0.94489999999999996</v>
+    <v>0.94469999999999998</v>
+    <v>0.9456</v>
+    <v>USDEUR</v>
+    <v>USD/EUR</v>
+  </rv>
+  <rv s="2">
+    <v>3</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2388,12 +2698,41 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="From currency" t="s"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="Low"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2438,8 +2777,37 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="27">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">Price</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">From currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="5">
+  <spbData count="9">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2484,12 +2852,37 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
+    <spb s="5">
+      <v>1</v>
+      <v>Name</v>
+    </spb>
+    <spb s="6">
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="7">
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>7</v>
+      <v>9</v>
+    </spb>
+    <spb s="8">
+      <v>GMT</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2532,6 +2925,31 @@
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+  </s>
+  <s>
     <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
@@ -2891,13 +3309,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomRight" activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3033,19 +3451,23 @@
         <v>8935661000</v>
       </c>
       <c r="K3" s="25">
-        <v>11600000000</v>
+        <v>10812000000</v>
       </c>
       <c r="L3" s="25">
-        <v>14500000000</v>
+        <f>K3*1.235</f>
+        <v>13352820000.000002</v>
       </c>
       <c r="M3" s="25">
-        <v>17800000000</v>
+        <f>L3*1.257</f>
+        <v>16784494740.000002</v>
       </c>
       <c r="N3" s="25">
-        <v>21000000000</v>
+        <f>M3*1.257</f>
+        <v>21098109888.18</v>
       </c>
       <c r="O3" s="25">
-        <v>23500000000</v>
+        <f>N3*1.167</f>
+        <v>24621494239.506062</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>107</v>
@@ -3099,23 +3521,23 @@
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.29816921210417457</v>
+        <v>0.20998323459227031</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.2350000000000001</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22758620689655173</v>
+        <v>0.2569999999999999</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1797752808988764</v>
+        <v>0.2569999999999999</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11904761904761907</v>
+        <v>0.16700000000000004</v>
       </c>
       <c r="P4" s="17">
         <f>(J4+I4+H4)/3</f>
@@ -3644,17 +4066,17 @@
         <f>(J35+I35+H35+G35+F35)/5</f>
         <v>2.567905561326001E-3</v>
       </c>
-      <c r="Q16" s="36">
-        <f>R101/J3</f>
-        <v>5.3632305433252228</v>
-      </c>
-      <c r="R16" s="36">
-        <f>R101/J28</f>
-        <v>84.950712501706136</v>
-      </c>
-      <c r="S16" s="37">
-        <f>R101/J107</f>
-        <v>23.973991995997999</v>
+      <c r="Q16" s="33">
+        <f>R102/J3</f>
+        <v>2.425874258211004</v>
+      </c>
+      <c r="R16" s="33">
+        <f>R102/J28</f>
+        <v>38.424554941246747</v>
+      </c>
+      <c r="S16" s="34">
+        <f>R102/J107</f>
+        <v>10.843816908454228</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -3764,36 +4186,36 @@
       <c r="J19" s="10">
         <v>693000000</v>
       </c>
-      <c r="K19" s="31">
-        <v>835400000</v>
-      </c>
-      <c r="L19" s="31">
-        <v>1174000000</v>
-      </c>
-      <c r="M19" s="31">
-        <v>1608000000</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2122000000</v>
-      </c>
-      <c r="O19" s="31">
-        <v>2615000000</v>
+      <c r="K19" s="28">
+        <v>705600000</v>
+      </c>
+      <c r="L19" s="28">
+        <v>896600000</v>
+      </c>
+      <c r="M19" s="28">
+        <v>1202000000</v>
+      </c>
+      <c r="N19" s="28">
+        <v>1647000000</v>
+      </c>
+      <c r="O19" s="28">
+        <v>2048000000</v>
       </c>
       <c r="P19" s="27">
         <f>J40-J56-J61</f>
         <v>5761725000</v>
       </c>
-      <c r="Q19" s="36">
-        <f>R101/K3</f>
-        <v>4.1313801724137935</v>
-      </c>
-      <c r="R19" s="38">
-        <f>R101/K28</f>
-        <v>69.124491562094335</v>
-      </c>
-      <c r="S19" s="37">
-        <f>R101/K105</f>
-        <v>20.723664791450993</v>
+      <c r="Q19" s="33">
+        <f>R102/K3</f>
+        <v>2.0048825379208286</v>
+      </c>
+      <c r="R19" s="35">
+        <f>R102/K28</f>
+        <v>34.917509664948454</v>
+      </c>
+      <c r="S19" s="34">
+        <f>R102/K105</f>
+        <v>468738906960</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3835,23 +4257,23 @@
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="4">(K19/J19)-1</f>
-        <v>0.20548340548340538</v>
+        <v>1.8181818181818077E-2</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="5">(L19/K19)-1</f>
-        <v>0.40531481924826429</v>
+        <v>0.27069160997732422</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="6">(M19/L19)-1</f>
-        <v>0.36967632027257236</v>
+        <v>0.34062012045505252</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="7">(N19/M19)-1</f>
-        <v>0.31965174129353224</v>
+        <v>0.37021630615640588</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" ref="O20" si="8">(O19/N19)-1</f>
-        <v>0.23232799245994351</v>
+        <v>0.24347298117789928</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -3886,28 +4308,31 @@
         <f>J19/J3</f>
         <v>7.755441930932698E-2</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="29">
         <f t="shared" ref="K21:O21" si="9">K19/K3</f>
-        <v>7.2017241379310343E-2</v>
-      </c>
-      <c r="L21" s="32">
+        <v>6.5260821309655936E-2</v>
+      </c>
+      <c r="L21" s="29">
         <f t="shared" si="9"/>
-        <v>8.0965517241379306E-2</v>
-      </c>
-      <c r="M21" s="32">
+        <v>6.7146864857011462E-2</v>
+      </c>
+      <c r="M21" s="29">
         <f t="shared" si="9"/>
-        <v>9.0337078651685387E-2</v>
-      </c>
-      <c r="N21" s="32">
+        <v>7.1613713645812122E-2</v>
+      </c>
+      <c r="N21" s="29">
         <f t="shared" si="9"/>
-        <v>0.10104761904761905</v>
-      </c>
-      <c r="O21" s="32">
+        <v>7.8063864902074231E-2</v>
+      </c>
+      <c r="O21" s="29">
         <f t="shared" si="9"/>
-        <v>0.11127659574468085</v>
+        <v>8.3179354594730942E-2</v>
+      </c>
+      <c r="Q21" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S21" s="20" t="s">
         <v>166</v>
@@ -3944,13 +4369,17 @@
       <c r="J22" s="10">
         <v>664675000</v>
       </c>
-      <c r="R22" s="42">
-        <f>(-1*J98)/R101</f>
+      <c r="Q22" s="17">
+        <f>SUM(K29:O29)/5</f>
+        <v>0.22942750604231513</v>
+      </c>
+      <c r="R22" s="37">
+        <f>(-1*J98)/R102</f>
         <v>0</v>
       </c>
-      <c r="S22" s="43">
-        <f>J107/R101</f>
-        <v>4.1711868435049572E-2</v>
+      <c r="S22" s="38">
+        <f>K107/R102</f>
+        <v>2.3066145863847923E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4147,20 +4576,20 @@
       <c r="J28" s="11">
         <v>564139000</v>
       </c>
-      <c r="K28" s="34">
-        <v>693300000</v>
-      </c>
-      <c r="L28" s="34">
-        <v>952500000</v>
-      </c>
-      <c r="M28" s="34">
-        <v>1321000000</v>
-      </c>
-      <c r="N28" s="34">
-        <v>1691000000</v>
-      </c>
-      <c r="O28" s="34">
-        <v>1916000000</v>
+      <c r="K28" s="31">
+        <v>620800000</v>
+      </c>
+      <c r="L28" s="31">
+        <v>780600000</v>
+      </c>
+      <c r="M28" s="31">
+        <v>984900000</v>
+      </c>
+      <c r="N28" s="31">
+        <v>1239000000</v>
+      </c>
+      <c r="O28" s="31">
+        <v>1573000000</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4202,23 +4631,23 @@
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="11">(K28/J28)-1</f>
-        <v>0.22895243902655205</v>
+        <v>0.10043801261745777</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29" si="12">(L28/K28)-1</f>
-        <v>0.373864128083081</v>
+        <v>0.25740979381443307</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" ref="M29" si="13">(M28/L28)-1</f>
-        <v>0.38687664041994752</v>
+        <v>0.26172175249807839</v>
       </c>
       <c r="N29" s="16">
         <f t="shared" ref="N29" si="14">(N28/M28)-1</f>
-        <v>0.28009084027252085</v>
+        <v>0.25799573560767586</v>
       </c>
       <c r="O29" s="16">
         <f t="shared" ref="O29" si="15">(O28/N28)-1</f>
-        <v>0.13305736250739209</v>
+        <v>0.26957223567393052</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4253,25 +4682,25 @@
         <f>J28/J3</f>
         <v>6.3133438029934222E-2</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="32">
         <f t="shared" ref="K30:O30" si="16">K28/K3</f>
-        <v>5.9767241379310346E-2</v>
-      </c>
-      <c r="L30" s="35">
+        <v>5.7417684054753976E-2</v>
+      </c>
+      <c r="L30" s="32">
         <f t="shared" si="16"/>
-        <v>6.5689655172413791E-2</v>
-      </c>
-      <c r="M30" s="35">
+        <v>5.8459561351085383E-2</v>
+      </c>
+      <c r="M30" s="32">
         <f t="shared" si="16"/>
-        <v>7.4213483146067419E-2</v>
-      </c>
-      <c r="N30" s="35">
+        <v>5.8679156880000305E-2</v>
+      </c>
+      <c r="N30" s="32">
         <f t="shared" si="16"/>
-        <v>8.0523809523809525E-2</v>
-      </c>
-      <c r="O30" s="35">
+        <v>5.8725639716860942E-2</v>
+      </c>
+      <c r="O30" s="32">
         <f t="shared" si="16"/>
-        <v>8.1531914893617025E-2</v>
+        <v>6.3887267957769417E-2</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4305,20 +4734,20 @@
       <c r="J31" s="12">
         <v>18.21</v>
       </c>
-      <c r="K31" s="33">
-        <v>22.37</v>
-      </c>
-      <c r="L31" s="33">
-        <v>30.74</v>
-      </c>
-      <c r="M31" s="33">
-        <v>42.62</v>
-      </c>
-      <c r="N31" s="33">
-        <v>54.58</v>
-      </c>
-      <c r="O31" s="33">
-        <v>61.83</v>
+      <c r="K31" s="30">
+        <v>20.02</v>
+      </c>
+      <c r="L31" s="30">
+        <v>25.17</v>
+      </c>
+      <c r="M31" s="30">
+        <v>31.76</v>
+      </c>
+      <c r="N31" s="30">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="O31" s="30">
+        <v>50.74</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -5905,7 +6334,7 @@
         <v>7.8337797282148464E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -5937,7 +6366,7 @@
         <v>1423000000</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -5969,7 +6398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -5998,12 +6427,8 @@
         <v>-3851000</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="Q83" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="R83" s="67"/>
-    </row>
-    <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -6034,12 +6459,18 @@
       <c r="J84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q84" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="R84" s="68"/>
-    </row>
-    <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="R84" s="74"/>
+    </row>
+    <row r="85" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -6070,130 +6501,151 @@
       <c r="J85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q85" s="44" t="s">
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="R85" s="75"/>
+    </row>
+    <row r="86" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1501000</v>
+      </c>
+      <c r="C86" s="1">
+        <v>-149000</v>
+      </c>
+      <c r="D86" s="1">
+        <v>8563000</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-19794000</v>
+      </c>
+      <c r="F86" s="1">
+        <v>19164000</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-444000</v>
+      </c>
+      <c r="H86" s="1">
+        <v>32857000</v>
+      </c>
+      <c r="I86" s="1">
+        <v>-13912000</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="46"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="R85" s="45">
+      <c r="R86" s="47">
         <f>J17</f>
         <v>11963000</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1501000</v>
-      </c>
-      <c r="C86" s="1">
-        <v>-149000</v>
-      </c>
-      <c r="D86" s="1">
-        <v>8563000</v>
-      </c>
-      <c r="E86" s="1">
-        <v>-19794000</v>
-      </c>
-      <c r="F86" s="1">
-        <v>19164000</v>
-      </c>
-      <c r="G86" s="1">
-        <v>-444000</v>
-      </c>
-      <c r="H86" s="1">
-        <v>32857000</v>
-      </c>
-      <c r="I86" s="1">
-        <v>-13912000</v>
-      </c>
-      <c r="J86" s="1"/>
-      <c r="Q86" s="44" t="s">
+    <row r="87" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="10">
+        <v>145781000</v>
+      </c>
+      <c r="C87" s="10">
+        <v>138398000</v>
+      </c>
+      <c r="D87" s="10">
+        <v>189565000</v>
+      </c>
+      <c r="E87" s="10">
+        <v>200612000</v>
+      </c>
+      <c r="F87" s="10">
+        <v>384005000</v>
+      </c>
+      <c r="G87" s="10">
+        <v>529455000</v>
+      </c>
+      <c r="H87" s="10">
+        <v>1016647000</v>
+      </c>
+      <c r="I87" s="10">
+        <v>1820146000</v>
+      </c>
+      <c r="J87" s="10">
+        <v>2029379000</v>
+      </c>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="46"/>
+      <c r="Q87" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="R86" s="45">
+      <c r="R87" s="47">
         <f>J56</f>
         <v>33200000</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="10">
-        <v>145781000</v>
-      </c>
-      <c r="C87" s="10">
-        <v>138398000</v>
-      </c>
-      <c r="D87" s="10">
-        <v>189565000</v>
-      </c>
-      <c r="E87" s="10">
-        <v>200612000</v>
-      </c>
-      <c r="F87" s="10">
-        <v>384005000</v>
-      </c>
-      <c r="G87" s="10">
-        <v>529455000</v>
-      </c>
-      <c r="H87" s="10">
-        <v>1016647000</v>
-      </c>
-      <c r="I87" s="10">
-        <v>1820146000</v>
-      </c>
-      <c r="J87" s="10">
-        <v>2029379000</v>
-      </c>
-      <c r="Q87" s="44" t="s">
+    <row r="88" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="1">
+        <v>-3353000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-5236000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-10537000</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-9685000</v>
+      </c>
+      <c r="F88" s="1">
+        <v>-11041000</v>
+      </c>
+      <c r="G88" s="1">
+        <v>-15186000</v>
+      </c>
+      <c r="H88" s="1">
+        <v>-17097000</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-51387000</v>
+      </c>
+      <c r="J88" s="1">
+        <v>-95575000</v>
+      </c>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="46"/>
+      <c r="Q88" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="R87" s="45">
+      <c r="R88" s="47">
         <f>J61</f>
         <v>169873000</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="1">
-        <v>-3353000</v>
-      </c>
-      <c r="C88" s="1">
-        <v>-5236000</v>
-      </c>
-      <c r="D88" s="1">
-        <v>-10537000</v>
-      </c>
-      <c r="E88" s="1">
-        <v>-9685000</v>
-      </c>
-      <c r="F88" s="1">
-        <v>-11041000</v>
-      </c>
-      <c r="G88" s="1">
-        <v>-15186000</v>
-      </c>
-      <c r="H88" s="1">
-        <v>-17097000</v>
-      </c>
-      <c r="I88" s="1">
-        <v>-51387000</v>
-      </c>
-      <c r="J88" s="1">
-        <v>-95575000</v>
-      </c>
-      <c r="Q88" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="R88" s="47">
-        <f>R85/(R86+R87)</f>
-        <v>5.8909850152408245E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>104</v>
       </c>
@@ -6233,93 +6685,114 @@
         <f t="shared" si="19"/>
         <v>1.0695907107487627E-2</v>
       </c>
-      <c r="Q89" s="44" t="s">
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="R89" s="48">
+        <f>R86/(R87+R88)</f>
+        <v>5.8909850152408245E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="R89" s="45">
+      <c r="R90" s="47">
         <f>J27</f>
         <v>149690000</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q90" s="44" t="s">
+    <row r="91" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-6989000</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-9607000</v>
+      </c>
+      <c r="G91" s="1">
+        <v>-10073000</v>
+      </c>
+      <c r="H91" s="1">
+        <v>-13355000</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-211000</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R90" s="45">
+      <c r="R91" s="47">
         <f>J25</f>
         <v>653424000</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="1">
-        <v>-6989000</v>
-      </c>
-      <c r="F91" s="1">
-        <v>-9607000</v>
-      </c>
-      <c r="G91" s="1">
-        <v>-10073000</v>
-      </c>
-      <c r="H91" s="1">
-        <v>-13355000</v>
-      </c>
-      <c r="I91" s="1">
-        <v>-211000</v>
-      </c>
-      <c r="J91" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="R91" s="47">
-        <f>R89/R90</f>
-        <v>0.22908555547393422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="S91" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -6350,15 +6823,25 @@
       <c r="J92" s="1">
         <v>0</v>
       </c>
-      <c r="Q92" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="R92" s="47">
-        <f>R88*(1-R91)</f>
-        <v>4.5414454407357578E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="R92" s="48">
+        <f>R90/R91</f>
+        <v>0.22908555547393422</v>
+      </c>
+      <c r="S92" s="44" cm="1">
+        <f t="array" ref="S92">_FV(S91,"Price")</f>
+        <v>0.9456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -6389,12 +6872,21 @@
       <c r="J93" s="1">
         <v>-3523000</v>
       </c>
-      <c r="Q93" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="R93" s="68"/>
-    </row>
-    <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="46"/>
+      <c r="P93" s="46"/>
+      <c r="Q93" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="R93" s="48">
+        <f>R89*(1-R92)</f>
+        <v>4.5414454407357578E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -6425,15 +6917,18 @@
       <c r="J94" s="10">
         <v>-87691000</v>
       </c>
-      <c r="Q94" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="R94" s="48">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="46"/>
+      <c r="P94" s="46"/>
+      <c r="Q94" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="R94" s="75"/>
+    </row>
+    <row r="95" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -6464,15 +6959,21 @@
       <c r="J95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q95" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="R95" s="49" cm="1">
-        <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.2976000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="R95" s="69">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -6503,11 +7004,18 @@
       <c r="J96" s="1">
         <v>9926000</v>
       </c>
-      <c r="Q96" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="R96" s="48">
-        <v>8.4000000000000005E-2</v>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="R96" s="50" cm="1">
+        <f t="array" ref="R96">_FV(A1,"Beta")</f>
+        <v>1.5569999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6541,15 +7049,20 @@
       <c r="J97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q97" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="R97" s="47">
-        <f>(R94)+((R95)*(R96-R94))</f>
-        <v>9.7356288000000013E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="46"/>
+      <c r="P97" s="46"/>
+      <c r="Q97" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="R97" s="49">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -6580,12 +7093,21 @@
       <c r="J98" s="1">
         <v>0</v>
       </c>
-      <c r="Q98" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="R98" s="68"/>
-    </row>
-    <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="46"/>
+      <c r="O98" s="46"/>
+      <c r="P98" s="46"/>
+      <c r="Q98" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="R98" s="48">
+        <f>(R95)+((R96)*(R97-R95))</f>
+        <v>0.10348386000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -6616,13 +7138,16 @@
       <c r="J99" s="1">
         <v>-22144000</v>
       </c>
-      <c r="Q99" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="R99" s="45">
-        <f>R86+R87</f>
-        <v>203073000</v>
-      </c>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+      <c r="P99" s="46"/>
+      <c r="Q99" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="R99" s="75"/>
     </row>
     <row r="100" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -6655,12 +7180,18 @@
       <c r="J100" s="10">
         <v>-12218000</v>
       </c>
-      <c r="Q100" s="46" t="s">
-        <v>139</v>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="R100" s="47">
-        <f>R99/R103</f>
-        <v>4.2195160674915622E-3</v>
+        <f>R87+R88</f>
+        <v>203073000</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6694,12 +7225,18 @@
       <c r="J101" s="1">
         <v>-14998000</v>
       </c>
-      <c r="Q101" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="R101" s="50" cm="1">
-        <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>47924010000</v>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="46"/>
+      <c r="P101" s="46"/>
+      <c r="Q101" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="R101" s="48">
+        <f>R100/R104</f>
+        <v>9.2812738361295957E-3</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6733,12 +7270,18 @@
       <c r="J102" s="10">
         <v>1921249000</v>
       </c>
-      <c r="Q102" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="R102" s="47">
-        <f>R101/R103</f>
-        <v>0.9957804839325084</v>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="46"/>
+      <c r="P102" s="46"/>
+      <c r="Q102" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="R102" s="51" cm="1">
+        <f t="array" ref="R102">_FV(A1,"Market cap",TRUE)</f>
+        <v>21676790000</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6772,15 +7315,21 @@
       <c r="J103" s="1">
         <v>4616094000</v>
       </c>
-      <c r="Q103" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="R103" s="51">
-        <f>R99+R101</f>
-        <v>48127083000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="46"/>
+      <c r="Q103" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="R103" s="48">
+        <f>R102/R104</f>
+        <v>0.99071872616387036</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -6811,17 +7360,28 @@
       <c r="J104" s="11">
         <v>6522345000</v>
       </c>
-      <c r="Q104" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="R104" s="68"/>
-    </row>
-    <row r="105" spans="1:18" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="R104" s="52">
+        <f>R100+R102</f>
+        <v>21879863000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:I105" si="20">(B22*(1-$R$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:J105" si="20">(B22*(1-$R$92))+B77+B88+B81</f>
         <v>138864647.53666839</v>
       </c>
       <c r="C105" s="1">
@@ -6853,105 +7413,108 @@
         <v>1765547718.5074317</v>
       </c>
       <c r="J105" s="1">
-        <f>(J22*(1-$R$91))+J77+J88+J81</f>
+        <f t="shared" si="20"/>
         <v>1903445558.4153628</v>
       </c>
-      <c r="K105" s="28">
-        <f>J105*(1+$R$106)</f>
-        <v>2312525824.0892701</v>
-      </c>
-      <c r="L105" s="28">
-        <f t="shared" ref="L105:O105" si="21">K105*(1+$R$106)</f>
-        <v>2809523846.6036472</v>
-      </c>
-      <c r="M105" s="28">
-        <f t="shared" si="21"/>
-        <v>3413334529.0287428</v>
-      </c>
-      <c r="N105" s="28">
-        <f t="shared" si="21"/>
-        <v>4146913585.070385</v>
-      </c>
-      <c r="O105" s="28">
-        <f t="shared" si="21"/>
-        <v>5038150270.8832512</v>
-      </c>
-      <c r="P105" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q105" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="R105" s="53">
-        <f>(R100*R92)+(R102*R97)</f>
-        <v>9.7137118598580888E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="K105" s="71">
+        <f>K107/K3</f>
+        <v>4.624491305956345E-2</v>
+      </c>
+      <c r="L105" s="71">
+        <f>L107/L3</f>
+        <v>6.2997928527457114E-2</v>
+      </c>
+      <c r="M105" s="71">
+        <f>M107/M3</f>
+        <v>6.8217722233323536E-2</v>
+      </c>
+      <c r="N105" s="71">
+        <f>N107/N3</f>
+        <v>7.498302020344956E-2</v>
+      </c>
+      <c r="O105" s="71">
+        <f>O107/O3</f>
+        <v>7.3106854624275242E-2</v>
+      </c>
+      <c r="P105" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q105" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="R105" s="75"/>
+    </row>
+    <row r="106" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:J106" si="22">(C107/B107)-1</f>
+        <f t="shared" ref="C106:J106" si="21">(C107/B107)-1</f>
         <v>-6.7140415452153546E-2</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.34593571341685925</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7.0854444500929148E-2</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.95268035636106618</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.37629087372871051</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.95242945970135184</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.77511045433297654</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.13206478649903719</v>
       </c>
-      <c r="K106" s="39">
-        <v>1000000000</v>
-      </c>
-      <c r="L106" s="39">
-        <v>1100000000</v>
-      </c>
-      <c r="M106" s="39">
-        <v>1504000000</v>
-      </c>
-      <c r="N106" s="39">
-        <v>1948000000</v>
-      </c>
-      <c r="O106" s="39">
-        <v>2310000000</v>
-      </c>
-      <c r="P106" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q106" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="R106" s="55">
-        <f>(SUM(K4:O4)/5)</f>
-        <v>0.21491566378944435</v>
+      <c r="K106" s="54">
+        <f>(K107/J107)-1</f>
+        <v>-0.74987493746873435</v>
+      </c>
+      <c r="L106" s="54">
+        <f>(L107/K107)-1</f>
+        <v>0.6823999999999999</v>
+      </c>
+      <c r="M106" s="54">
+        <f>(M107/L107)-1</f>
+        <v>0.36115073704232059</v>
+      </c>
+      <c r="N106" s="54">
+        <f>(N107/M107)-1</f>
+        <v>0.38165938864628823</v>
+      </c>
+      <c r="O106" s="54">
+        <f>(O107/N107)-1</f>
+        <v>0.13780025284450059</v>
+      </c>
+      <c r="P106" s="55">
+        <f>SUM(K106:O106)/5</f>
+        <v>0.162627088212875</v>
+      </c>
+      <c r="Q106" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="R106" s="56">
+        <f>(R101*R93)+(R103*R98)</f>
+        <v>0.10294490194519341</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="36" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1">
@@ -6981,151 +7544,239 @@
       <c r="J107" s="1">
         <v>1999000000</v>
       </c>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="40">
-        <f>O106*(1+R107)/(R108-R107)</f>
-        <v>32822907900.934368</v>
-      </c>
-      <c r="P107" s="30" t="s">
+      <c r="K107" s="57">
+        <v>500000000</v>
+      </c>
+      <c r="L107" s="57">
+        <v>841200000</v>
+      </c>
+      <c r="M107" s="57">
+        <v>1145000000</v>
+      </c>
+      <c r="N107" s="57">
+        <v>1582000000</v>
+      </c>
+      <c r="O107" s="57">
+        <v>1800000000</v>
+      </c>
+      <c r="P107" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q107" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="R107" s="42">
+        <f>(SUM(K4:O4)/5)</f>
+        <v>0.22519664691845404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+      <c r="K108" s="70"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="70"/>
+      <c r="N108" s="70"/>
+      <c r="O108" s="59">
+        <f>O107*(1+R108)/(R109-R108)</f>
+        <v>23670566694.628765</v>
+      </c>
+      <c r="P108" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="Q107" s="56" t="s">
+      <c r="Q108" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="R107" s="57">
+      <c r="R108" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K108" s="40">
-        <f t="shared" ref="K108:N108" si="23">K107+K106</f>
-        <v>1000000000</v>
-      </c>
-      <c r="L108" s="40">
-        <f t="shared" si="23"/>
-        <v>1100000000</v>
-      </c>
-      <c r="M108" s="40">
-        <f t="shared" si="23"/>
-        <v>1504000000</v>
-      </c>
-      <c r="N108" s="40">
-        <f t="shared" si="23"/>
-        <v>1948000000</v>
-      </c>
-      <c r="O108" s="40">
-        <f>O107+O106</f>
-        <v>35132907900.934372</v>
-      </c>
-      <c r="P108" s="30" t="s">
+    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+      <c r="K109" s="59">
+        <f t="shared" ref="K109:N109" si="22">K108+K107</f>
+        <v>500000000</v>
+      </c>
+      <c r="L109" s="59">
+        <f t="shared" si="22"/>
+        <v>841200000</v>
+      </c>
+      <c r="M109" s="59">
+        <f t="shared" si="22"/>
+        <v>1145000000</v>
+      </c>
+      <c r="N109" s="59">
+        <f t="shared" si="22"/>
+        <v>1582000000</v>
+      </c>
+      <c r="O109" s="59">
+        <f>O108+O107</f>
+        <v>25470566694.628765</v>
+      </c>
+      <c r="P109" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="Q108" s="58" t="s">
+      <c r="Q109" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="R108" s="55">
-        <f>R105</f>
-        <v>9.7137118598580888E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="65" t="s">
+      <c r="R109" s="42">
+        <f>R106</f>
+        <v>0.10294490194519341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.2">
+      <c r="K110" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="L109" s="65"/>
-    </row>
-    <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K110" s="59" t="s">
+      <c r="L110" s="76"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
+      <c r="R110" s="46"/>
+    </row>
+    <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="K111" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="L110" s="50">
-        <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>26409482335.224476</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K111" s="59" t="s">
+      <c r="L111" s="51">
+        <f>NPV(R109,K109,L109,M109,N109,O109)</f>
+        <v>18672453733.262737</v>
+      </c>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="46"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="46"/>
+      <c r="R111" s="46"/>
+    </row>
+    <row r="112" spans="1:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="K112" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="L111" s="50">
+      <c r="L112" s="51">
         <f>J40</f>
         <v>5964798000</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K112" s="59" t="s">
+      <c r="M112" s="46"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="46"/>
+      <c r="R112" s="46"/>
+    </row>
+    <row r="113" spans="11:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="K113" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="L112" s="50">
-        <f>R99</f>
+      <c r="L113" s="51">
+        <f>R100</f>
         <v>203073000</v>
       </c>
-    </row>
-    <row r="113" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K113" s="59" t="s">
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="46"/>
+      <c r="Q113" s="46"/>
+      <c r="R113" s="46"/>
+    </row>
+    <row r="114" spans="11:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="K114" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="L113" s="50">
-        <f>L110+L111-L112</f>
-        <v>32171207335.224476</v>
-      </c>
-    </row>
-    <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K114" s="59" t="s">
+      <c r="L114" s="51">
+        <f>L111+L112-L113</f>
+        <v>24434178733.262737</v>
+      </c>
+      <c r="M114" s="46"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="46"/>
+      <c r="P114" s="46"/>
+      <c r="Q114" s="46"/>
+      <c r="R114" s="46"/>
+    </row>
+    <row r="115" spans="11:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="K115" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="L114" s="59">
+      <c r="L115" s="63">
         <f>J34*(1+(5*P16))</f>
         <v>31444645.352630943</v>
       </c>
-    </row>
-    <row r="115" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K115" s="60" t="s">
+      <c r="M115" s="46"/>
+      <c r="N115" s="46"/>
+      <c r="O115" s="46"/>
+      <c r="P115" s="46"/>
+      <c r="Q115" s="46"/>
+      <c r="R115" s="46"/>
+    </row>
+    <row r="116" spans="11:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="K116" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="L115" s="61">
-        <f>L113/L114</f>
-        <v>1023.1060638288529</v>
-      </c>
-    </row>
-    <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K116" s="59" t="s">
+      <c r="L116" s="65">
+        <f>L114/L115</f>
+        <v>777.05372279602932</v>
+      </c>
+      <c r="M116" s="46"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="46"/>
+      <c r="R116" s="46"/>
+    </row>
+    <row r="117" spans="11:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="K117" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="L116" s="62" cm="1">
-        <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>1551.4</v>
-      </c>
-    </row>
-    <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K117" s="60" t="s">
+      <c r="L117" s="66" cm="1">
+        <f t="array" ref="L117">_FV(A1,"Price")*S92</f>
+        <v>661.25807999999995</v>
+      </c>
+      <c r="M117" s="46"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="46"/>
+      <c r="R117" s="46"/>
+    </row>
+    <row r="118" spans="11:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="K118" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="L117" s="63">
-        <f>L115/L116-1</f>
-        <v>-0.34052722455275697</v>
-      </c>
-    </row>
-    <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K118" s="60" t="s">
+      <c r="L118" s="67">
+        <f>L116/L117-1</f>
+        <v>0.17511414423250504</v>
+      </c>
+      <c r="M118" s="46"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="46"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="46"/>
+      <c r="R118" s="46"/>
+    </row>
+    <row r="119" spans="11:18" ht="20" x14ac:dyDescent="0.2">
+      <c r="K119" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="L118" s="64" t="str">
-        <f>IF(L115&gt;L116,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
+      <c r="L119" s="68" t="str">
+        <f>IF(L116&gt;L117,"BUY","SELL")</f>
+        <v>BUY</v>
+      </c>
+      <c r="M119" s="46"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="46"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="46"/>
+      <c r="R119" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="Q83:R83"/>
+  <mergeCells count="7">
     <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="Q98:R98"/>
-    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K104:O104"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="Q94:R94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ADYEN.AS" display="ROIC.AI | ADYEN.AS" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7148,7 +7799,7 @@
     <hyperlink ref="J36" r:id="rId18" tooltip="https://sec.gov" xr:uid="{55CACCD9-52D9-E54B-BB47-F0004C13DCB7}"/>
     <hyperlink ref="J74" r:id="rId19" tooltip="https://sec.gov" xr:uid="{021651E5-B64B-6B4D-AEE7-3D1CDABACF0D}"/>
     <hyperlink ref="K1" r:id="rId20" display="https://finbox.com/ENXTAM:ADYEN/explorer/revenue_proj/" xr:uid="{A2CAAA8B-B36F-3E4E-9B1A-027FF9D13D05}"/>
-    <hyperlink ref="P106" r:id="rId21" xr:uid="{C88F5793-6C9E-174F-BC02-3887840C2D1A}"/>
+    <hyperlink ref="P107" r:id="rId21" xr:uid="{C88F5793-6C9E-174F-BC02-3887840C2D1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId22"/>

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F40EC6-76E8-7140-AD80-0F0BB5452216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A830077-0C90-F24E-97ED-675000CB8658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2436,7 +2436,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2577,9 +2577,9 @@
     <v>Powered by Refinitiv</v>
     <v>1699.2</v>
     <v>620.79999999999995</v>
-    <v>1.5569999999999999</v>
-    <v>0.5</v>
-    <v>7.1549999999999999E-4</v>
+    <v>1.5585</v>
+    <v>-17.5</v>
+    <v>-2.5024999999999999E-2</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3883</v>
@@ -2587,24 +2587,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>704.2</v>
+    <v>697.9</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45218.666666666664</v>
+    <v>45219.666666666664</v>
     <v>0</v>
-    <v>690</v>
-    <v>21676790000</v>
+    <v>677.8</v>
+    <v>21692290000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>691.8</v>
+    <v>691.4</v>
     <v>38.418599999999998</v>
-    <v>698.8</v>
     <v>699.3</v>
+    <v>681.8</v>
     <v>31020010</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>51243</v>
-    <v>108770</v>
+    <v>77528</v>
+    <v>103320</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2624,18 +2624,15 @@
     <v>Powered by Refinitiv</v>
     <v>1.0303</v>
     <v>0.88670000000000004</v>
-    <v>8.9999999999999998E-4</v>
-    <v>9.526999999999999E-4</v>
+    <v>-8.9999999999999998E-4</v>
+    <v>-9.526999999999999E-4</v>
     <v>EUR</v>
     <v>USD</v>
-    <v>0.94620000000000004</v>
     <v>Currency Pair</v>
-    <v>45219.185231481482</v>
-    <v>0.9446</v>
+    <v>45219.875</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.94489999999999996</v>
     <v>0.94469999999999998</v>
-    <v>0.9456</v>
+    <v>0.94379999999999997</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -2716,12 +2713,9 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2777,7 +2771,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2795,9 +2789,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2861,10 +2852,7 @@
       <v>1</v>
     </spb>
     <spb s="7">
-      <v>1</v>
-      <v>1</v>
       <v>3</v>
-      <v>1</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -2936,10 +2924,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -3315,7 +3300,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J118" sqref="J118"/>
+      <selection pane="bottomRight" activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4068,15 +4053,15 @@
       </c>
       <c r="Q16" s="33">
         <f>R102/J3</f>
-        <v>2.425874258211004</v>
+        <v>2.4276088808651091</v>
       </c>
       <c r="R16" s="33">
         <f>R102/J28</f>
-        <v>38.424554941246747</v>
+        <v>38.452030439306625</v>
       </c>
       <c r="S16" s="34">
         <f>R102/J107</f>
-        <v>10.843816908454228</v>
+        <v>10.851570785392695</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4207,15 +4192,15 @@
       </c>
       <c r="Q19" s="33">
         <f>R102/K3</f>
-        <v>2.0048825379208286</v>
+        <v>2.0063161302256751</v>
       </c>
       <c r="R19" s="35">
         <f>R102/K28</f>
-        <v>34.917509664948454</v>
+        <v>34.942477448453609</v>
       </c>
       <c r="S19" s="34">
         <f>R102/K105</f>
-        <v>468738906960</v>
+        <v>469074078960</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4379,7 +4364,7 @@
       </c>
       <c r="S22" s="38">
         <f>K107/R102</f>
-        <v>2.3066145863847923E-2</v>
+        <v>2.3049664189442425E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6838,7 +6823,7 @@
       </c>
       <c r="S92" s="44" cm="1">
         <f t="array" ref="S92">_FV(S91,"Price")</f>
-        <v>0.9456</v>
+        <v>0.94379999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6970,7 +6955,7 @@
       </c>
       <c r="R95" s="69">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7015,7 +7000,7 @@
       </c>
       <c r="R96" s="50" cm="1">
         <f t="array" ref="R96">_FV(A1,"Beta")</f>
-        <v>1.5569999999999999</v>
+        <v>1.5585</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7104,7 +7089,7 @@
       </c>
       <c r="R98" s="48">
         <f>(R95)+((R96)*(R97-R95))</f>
-        <v>0.10348386000000001</v>
+        <v>0.10305602</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7236,7 +7221,7 @@
       </c>
       <c r="R101" s="48">
         <f>R100/R104</f>
-        <v>9.2812738361295957E-3</v>
+        <v>9.2747035068566804E-3</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7281,7 +7266,7 @@
       </c>
       <c r="R102" s="51" cm="1">
         <f t="array" ref="R102">_FV(A1,"Market cap",TRUE)</f>
-        <v>21676790000</v>
+        <v>21692290000</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7326,7 +7311,7 @@
       </c>
       <c r="R103" s="48">
         <f>R102/R104</f>
-        <v>0.99071872616387036</v>
+        <v>0.99072529649314334</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7373,7 +7358,7 @@
       </c>
       <c r="R104" s="52">
         <f>R100+R102</f>
-        <v>21879863000</v>
+        <v>21895363000</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7510,7 +7495,7 @@
       </c>
       <c r="R106" s="56">
         <f>(R101*R93)+(R103*R98)</f>
-        <v>0.10294490194519341</v>
+        <v>0.10252141156945721</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7577,7 +7562,7 @@
       <c r="N108" s="70"/>
       <c r="O108" s="59">
         <f>O107*(1+R108)/(R109-R108)</f>
-        <v>23670566694.628765</v>
+        <v>23799876223.189339</v>
       </c>
       <c r="P108" s="60" t="s">
         <v>145</v>
@@ -7608,7 +7593,7 @@
       </c>
       <c r="O109" s="59">
         <f>O108+O107</f>
-        <v>25470566694.628765</v>
+        <v>25599876223.189339</v>
       </c>
       <c r="P109" s="60" t="s">
         <v>142</v>
@@ -7618,7 +7603,7 @@
       </c>
       <c r="R109" s="42">
         <f>R106</f>
-        <v>0.10294490194519341</v>
+        <v>0.10252141156945721</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.2">
@@ -7639,7 +7624,7 @@
       </c>
       <c r="L111" s="51">
         <f>NPV(R109,K109,L109,M109,N109,O109)</f>
-        <v>18672453733.262737</v>
+        <v>18785157203.134064</v>
       </c>
       <c r="M111" s="46"/>
       <c r="N111" s="46"/>
@@ -7684,7 +7669,7 @@
       </c>
       <c r="L114" s="51">
         <f>L111+L112-L113</f>
-        <v>24434178733.262737</v>
+        <v>24546882203.134064</v>
       </c>
       <c r="M114" s="46"/>
       <c r="N114" s="46"/>
@@ -7714,7 +7699,7 @@
       </c>
       <c r="L116" s="65">
         <f>L114/L115</f>
-        <v>777.05372279602932</v>
+        <v>780.63790918475888</v>
       </c>
       <c r="M116" s="46"/>
       <c r="N116" s="46"/>
@@ -7729,7 +7714,7 @@
       </c>
       <c r="L117" s="66" cm="1">
         <f t="array" ref="L117">_FV(A1,"Price")*S92</f>
-        <v>661.25807999999995</v>
+        <v>643.4828399999999</v>
       </c>
       <c r="M117" s="46"/>
       <c r="N117" s="46"/>
@@ -7744,7 +7729,7 @@
       </c>
       <c r="L118" s="67">
         <f>L116/L117-1</f>
-        <v>0.17511414423250504</v>
+        <v>0.21314487451562658</v>
       </c>
       <c r="M118" s="46"/>
       <c r="N118" s="46"/>

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A830077-0C90-F24E-97ED-675000CB8658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593621CE-430E-6945-AE16-053C9BA8E3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2411,13 +2411,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2433,14 +2435,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2450,6 +2452,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2576,10 +2580,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1699.2</v>
-    <v>620.79999999999995</v>
-    <v>1.5585</v>
-    <v>-17.5</v>
-    <v>-2.5024999999999999E-2</v>
+    <v>602.79999999999995</v>
+    <v>1.5690999999999999</v>
+    <v>-29.2</v>
+    <v>-4.3634000000000006E-2</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3883</v>
@@ -2587,24 +2591,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>697.9</v>
+    <v>677.6</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45219.666666666664</v>
+    <v>45226.666666666664</v>
     <v>0</v>
-    <v>677.8</v>
-    <v>21692290000</v>
+    <v>638.20000000000005</v>
+    <v>19852810000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>691.4</v>
-    <v>38.418599999999998</v>
-    <v>699.3</v>
-    <v>681.8</v>
+    <v>673</v>
+    <v>35.160800000000002</v>
+    <v>669.2</v>
+    <v>640</v>
     <v>31020010</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>77528</v>
-    <v>103320</v>
+    <v>101455</v>
+    <v>103090</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2622,17 +2626,20 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1.0303</v>
+    <v>1.0276000000000001</v>
     <v>0.88670000000000004</v>
-    <v>-8.9999999999999998E-4</v>
-    <v>-9.526999999999999E-4</v>
+    <v>1E-4</v>
+    <v>1.0569999999999999E-4</v>
     <v>EUR</v>
     <v>USD</v>
+    <v>0.94730000000000003</v>
     <v>Currency Pair</v>
-    <v>45219.875</v>
+    <v>45229.29184027778</v>
+    <v>0.94610000000000005</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.94469999999999998</v>
-    <v>0.94379999999999997</v>
+    <v>0.94630000000000003</v>
+    <v>0.94630000000000003</v>
+    <v>0.94640000000000002</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -2713,9 +2720,12 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
+    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
+    <k n="Low"/>
     <k n="Name" t="s"/>
+    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2771,7 +2781,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="24">
+    <a count="27">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2789,6 +2799,9 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2852,7 +2865,10 @@
       <v>1</v>
     </spb>
     <spb s="7">
+      <v>1</v>
+      <v>1</v>
       <v>3</v>
+      <v>1</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -2924,7 +2940,10 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
     <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -3297,10 +3316,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K121" sqref="K121"/>
+      <selection pane="bottomRight" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4053,15 +4072,15 @@
       </c>
       <c r="Q16" s="33">
         <f>R102/J3</f>
-        <v>2.4276088808651091</v>
+        <v>2.2217505789442997</v>
       </c>
       <c r="R16" s="33">
         <f>R102/J28</f>
-        <v>38.452030439306625</v>
+        <v>35.191344686327305</v>
       </c>
       <c r="S16" s="34">
         <f>R102/J107</f>
-        <v>10.851570785392695</v>
+        <v>9.9313706853426709</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4192,15 +4211,15 @@
       </c>
       <c r="Q19" s="33">
         <f>R102/K3</f>
-        <v>2.0063161302256751</v>
+        <v>1.8361829448760636</v>
       </c>
       <c r="R19" s="35">
         <f>R102/K28</f>
-        <v>34.942477448453609</v>
+        <v>31.979397551546391</v>
       </c>
       <c r="S19" s="34">
         <f>R102/K105</f>
-        <v>469074078960</v>
+        <v>429297163440</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4364,7 +4383,7 @@
       </c>
       <c r="S22" s="38">
         <f>K107/R102</f>
-        <v>2.3049664189442425E-2</v>
+        <v>2.5185351595063871E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6823,7 +6842,7 @@
       </c>
       <c r="S92" s="44" cm="1">
         <f t="array" ref="S92">_FV(S91,"Price")</f>
-        <v>0.94379999999999997</v>
+        <v>0.94640000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6955,7 +6974,7 @@
       </c>
       <c r="R95" s="69">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7000,7 +7019,7 @@
       </c>
       <c r="R96" s="50" cm="1">
         <f t="array" ref="R96">_FV(A1,"Beta")</f>
-        <v>1.5585</v>
+        <v>1.5690999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7089,7 +7108,7 @@
       </c>
       <c r="R98" s="48">
         <f>(R95)+((R96)*(R97-R95))</f>
-        <v>0.10305602</v>
+        <v>0.104231505</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7221,7 +7240,7 @@
       </c>
       <c r="R101" s="48">
         <f>R100/R104</f>
-        <v>9.2747035068566804E-3</v>
+        <v>1.0125358230300805E-2</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7266,7 +7285,7 @@
       </c>
       <c r="R102" s="51" cm="1">
         <f t="array" ref="R102">_FV(A1,"Market cap",TRUE)</f>
-        <v>21692290000</v>
+        <v>19852810000</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7311,7 +7330,7 @@
       </c>
       <c r="R103" s="48">
         <f>R102/R104</f>
-        <v>0.99072529649314334</v>
+        <v>0.98987464176969919</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7358,7 +7377,7 @@
       </c>
       <c r="R104" s="52">
         <f>R100+R102</f>
-        <v>21895363000</v>
+        <v>20055883000</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7495,7 +7514,7 @@
       </c>
       <c r="R106" s="56">
         <f>(R101*R93)+(R103*R98)</f>
-        <v>0.10252141156945721</v>
+        <v>0.10363596129269978</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7562,7 +7581,7 @@
       <c r="N108" s="70"/>
       <c r="O108" s="59">
         <f>O107*(1+R108)/(R109-R108)</f>
-        <v>23799876223.189339</v>
+        <v>23462547792.002148</v>
       </c>
       <c r="P108" s="60" t="s">
         <v>145</v>
@@ -7593,7 +7612,7 @@
       </c>
       <c r="O109" s="59">
         <f>O108+O107</f>
-        <v>25599876223.189339</v>
+        <v>25262547792.002148</v>
       </c>
       <c r="P109" s="60" t="s">
         <v>142</v>
@@ -7603,7 +7622,7 @@
       </c>
       <c r="R109" s="42">
         <f>R106</f>
-        <v>0.10252141156945721</v>
+        <v>0.10363596129269978</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.2">
@@ -7624,7 +7643,7 @@
       </c>
       <c r="L111" s="51">
         <f>NPV(R109,K109,L109,M109,N109,O109)</f>
-        <v>18785157203.134064</v>
+        <v>18491181240.261669</v>
       </c>
       <c r="M111" s="46"/>
       <c r="N111" s="46"/>
@@ -7669,7 +7688,7 @@
       </c>
       <c r="L114" s="51">
         <f>L111+L112-L113</f>
-        <v>24546882203.134064</v>
+        <v>24252906240.261669</v>
       </c>
       <c r="M114" s="46"/>
       <c r="N114" s="46"/>
@@ -7699,7 +7718,7 @@
       </c>
       <c r="L116" s="65">
         <f>L114/L115</f>
-        <v>780.63790918475888</v>
+        <v>771.28891002844307</v>
       </c>
       <c r="M116" s="46"/>
       <c r="N116" s="46"/>
@@ -7714,7 +7733,7 @@
       </c>
       <c r="L117" s="66" cm="1">
         <f t="array" ref="L117">_FV(A1,"Price")*S92</f>
-        <v>643.4828399999999</v>
+        <v>605.69600000000003</v>
       </c>
       <c r="M117" s="46"/>
       <c r="N117" s="46"/>
@@ -7729,7 +7748,7 @@
       </c>
       <c r="L118" s="67">
         <f>L116/L117-1</f>
-        <v>0.21314487451562658</v>
+        <v>0.27339277464015455</v>
       </c>
       <c r="M118" s="46"/>
       <c r="N118" s="46"/>

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593621CE-430E-6945-AE16-053C9BA8E3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D67DF3D-2BCB-3D4F-8ED1-B89D581B4B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2416,13 +2416,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2439,7 +2436,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.6689999999999995E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2451,9 +2448,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2581,9 +2575,9 @@
     <v>Powered by Refinitiv</v>
     <v>1699.2</v>
     <v>602.79999999999995</v>
-    <v>1.5690999999999999</v>
-    <v>-29.2</v>
-    <v>-4.3634000000000006E-2</v>
+    <v>1.5722</v>
+    <v>42.8</v>
+    <v>6.4264000000000002E-2</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3883</v>
@@ -2591,24 +2585,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>677.6</v>
+    <v>719.6</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45226.666666666664</v>
+    <v>45233.722731481481</v>
     <v>0</v>
-    <v>638.20000000000005</v>
-    <v>19852810000</v>
+    <v>672.1</v>
+    <v>21986980000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>673</v>
-    <v>35.160800000000002</v>
-    <v>669.2</v>
-    <v>640</v>
+    <v>672.4</v>
+    <v>36.589199999999998</v>
+    <v>666</v>
+    <v>708.8</v>
     <v>31020010</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>101455</v>
-    <v>103090</v>
+    <v>146794</v>
+    <v>115900</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2628,18 +2622,15 @@
     <v>Powered by Refinitiv</v>
     <v>1.0276000000000001</v>
     <v>0.88670000000000004</v>
-    <v>1E-4</v>
-    <v>1.0569999999999999E-4</v>
+    <v>-9.5999999999999992E-3</v>
+    <v>-1.0199E-2</v>
     <v>EUR</v>
     <v>USD</v>
-    <v>0.94730000000000003</v>
     <v>Currency Pair</v>
-    <v>45229.29184027778</v>
-    <v>0.94610000000000005</v>
+    <v>45233.875</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.94630000000000003</v>
-    <v>0.94630000000000003</v>
-    <v>0.94640000000000002</v>
+    <v>0.94130000000000003</v>
+    <v>0.93169999999999997</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -2720,12 +2711,9 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2781,7 +2769,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2799,9 +2787,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2865,10 +2850,7 @@
       <v>1</v>
     </spb>
     <spb s="7">
-      <v>1</v>
-      <v>1</v>
       <v>3</v>
-      <v>1</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -2940,10 +2922,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -3316,10 +3295,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J115" sqref="J115"/>
+      <selection pane="bottomRight" activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4072,15 +4051,15 @@
       </c>
       <c r="Q16" s="33">
         <f>R102/J3</f>
-        <v>2.2217505789442997</v>
+        <v>2.4605879744095036</v>
       </c>
       <c r="R16" s="33">
         <f>R102/J28</f>
-        <v>35.191344686327305</v>
+        <v>38.974401698872086</v>
       </c>
       <c r="S16" s="34">
         <f>R102/J107</f>
-        <v>9.9313706853426709</v>
+        <v>10.998989494747374</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4211,15 +4190,15 @@
       </c>
       <c r="Q19" s="33">
         <f>R102/K3</f>
-        <v>1.8361829448760636</v>
+        <v>2.0335719570847206</v>
       </c>
       <c r="R19" s="35">
         <f>R102/K28</f>
-        <v>31.979397551546391</v>
+        <v>35.417171391752575</v>
       </c>
       <c r="S19" s="34">
         <f>R102/K105</f>
-        <v>429297163440</v>
+        <v>475446455520</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4383,7 +4362,7 @@
       </c>
       <c r="S22" s="38">
         <f>K107/R102</f>
-        <v>2.5185351595063871E-2</v>
+        <v>2.2740731105408748E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6842,7 +6821,7 @@
       </c>
       <c r="S92" s="44" cm="1">
         <f t="array" ref="S92">_FV(S91,"Price")</f>
-        <v>0.94640000000000002</v>
+        <v>0.93169999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6974,7 +6953,7 @@
       </c>
       <c r="R95" s="69">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.6689999999999995E-2</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -7019,7 +6998,7 @@
       </c>
       <c r="R96" s="50" cm="1">
         <f t="array" ref="R96">_FV(A1,"Beta")</f>
-        <v>1.5690999999999999</v>
+        <v>1.5722</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7108,7 +7087,7 @@
       </c>
       <c r="R98" s="48">
         <f>(R95)+((R96)*(R97-R95))</f>
-        <v>0.104231505</v>
+        <v>0.10534878200000002</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7240,7 +7219,7 @@
       </c>
       <c r="R101" s="48">
         <f>R100/R104</f>
-        <v>1.0125358230300805E-2</v>
+        <v>9.1515328962936682E-3</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7285,7 +7264,7 @@
       </c>
       <c r="R102" s="51" cm="1">
         <f t="array" ref="R102">_FV(A1,"Market cap",TRUE)</f>
-        <v>19852810000</v>
+        <v>21986980000</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7330,7 +7309,7 @@
       </c>
       <c r="R103" s="48">
         <f>R102/R104</f>
-        <v>0.98987464176969919</v>
+        <v>0.99084846710370633</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7377,7 +7356,7 @@
       </c>
       <c r="R104" s="52">
         <f>R100+R102</f>
-        <v>20055883000</v>
+        <v>22190053000</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7514,7 +7493,7 @@
       </c>
       <c r="R106" s="56">
         <f>(R101*R93)+(R103*R98)</f>
-        <v>0.10363596129269978</v>
+        <v>0.10480029102941871</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7581,7 +7560,7 @@
       <c r="N108" s="70"/>
       <c r="O108" s="59">
         <f>O107*(1+R108)/(R109-R108)</f>
-        <v>23462547792.002148</v>
+        <v>23120216432.792618</v>
       </c>
       <c r="P108" s="60" t="s">
         <v>145</v>
@@ -7612,7 +7591,7 @@
       </c>
       <c r="O109" s="59">
         <f>O108+O107</f>
-        <v>25262547792.002148</v>
+        <v>24920216432.792618</v>
       </c>
       <c r="P109" s="60" t="s">
         <v>142</v>
@@ -7622,7 +7601,7 @@
       </c>
       <c r="R109" s="42">
         <f>R106</f>
-        <v>0.10363596129269978</v>
+        <v>0.10480029102941871</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.2">
@@ -7643,7 +7622,7 @@
       </c>
       <c r="L111" s="51">
         <f>NPV(R109,K109,L109,M109,N109,O109)</f>
-        <v>18491181240.261669</v>
+        <v>18192955041.960041</v>
       </c>
       <c r="M111" s="46"/>
       <c r="N111" s="46"/>
@@ -7688,7 +7667,7 @@
       </c>
       <c r="L114" s="51">
         <f>L111+L112-L113</f>
-        <v>24252906240.261669</v>
+        <v>23954680041.960041</v>
       </c>
       <c r="M114" s="46"/>
       <c r="N114" s="46"/>
@@ -7718,7 +7697,7 @@
       </c>
       <c r="L116" s="65">
         <f>L114/L115</f>
-        <v>771.28891002844307</v>
+        <v>761.80474523799251</v>
       </c>
       <c r="M116" s="46"/>
       <c r="N116" s="46"/>
@@ -7733,7 +7712,7 @@
       </c>
       <c r="L117" s="66" cm="1">
         <f t="array" ref="L117">_FV(A1,"Price")*S92</f>
-        <v>605.69600000000003</v>
+        <v>660.38895999999988</v>
       </c>
       <c r="M117" s="46"/>
       <c r="N117" s="46"/>
@@ -7748,7 +7727,7 @@
       </c>
       <c r="L118" s="67">
         <f>L116/L117-1</f>
-        <v>0.27339277464015455</v>
+        <v>0.15356977687512008</v>
       </c>
       <c r="M118" s="46"/>
       <c r="N118" s="46"/>

--- a/Technology/Software/Adyen.xlsx
+++ b/Technology/Software/Adyen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D67DF3D-2BCB-3D4F-8ED1-B89D581B4B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F9E495-9E81-1B47-89BD-09D16F715C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2436,7 +2436,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2575,9 +2575,9 @@
     <v>Powered by Refinitiv</v>
     <v>1699.2</v>
     <v>602.79999999999995</v>
-    <v>1.5722</v>
-    <v>42.8</v>
-    <v>6.4264000000000002E-2</v>
+    <v>1.5642</v>
+    <v>26.8</v>
+    <v>4.0065999999999997E-2</v>
     <v>EUR</v>
     <v>Adyen NV, formerly Adyen BV, is provider of mobile, online and point-of-sale (POS) payment solutions based in the Netherlands. It operates an online platform enabling merchants to accept payments internationally and from all sales channels, such as online shops, mobile payments from applications and Websites, and POS, such as countertops, mobile terminals, tablets and cash registers, among others. The platform covers the entire payment chain, including technical, contractual, reconciliation and settlement processes. The platform is available in the form of ready-to-use payment pages (HPP), application programming interface (API), and client-side encryption solution (EE). The Company’s customers include Mango, KLM, Netflix, Superdry, Uber, Groupon and Crocs, among others. It has offices in the Netherlands, the United Kingdom, France, Germany, Belgium, Brazil, China, Australia, Mexico, Singapore, Spain, Sweden and the United States.</v>
     <v>3883</v>
@@ -2585,24 +2585,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>Simon Carmiggeltstraat 6-50, AMSTERDAM, NOORD-HOLLAND, 1011 DJ NL</v>
-    <v>719.6</v>
+    <v>708.5</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45233.722731481481</v>
+    <v>45238.708333333336</v>
     <v>0</v>
-    <v>672.1</v>
-    <v>21986980000</v>
+    <v>655.29999999999995</v>
+    <v>20749290000</v>
     <v>Adyen NV</v>
     <v>Adyen NV</v>
-    <v>672.4</v>
-    <v>36.589199999999998</v>
-    <v>666</v>
-    <v>708.8</v>
+    <v>669</v>
+    <v>38.2209</v>
+    <v>668.9</v>
+    <v>695.7</v>
     <v>31020010</v>
     <v>ADYEN</v>
     <v>Adyen NV (XAMS:ADYEN)</v>
-    <v>146794</v>
-    <v>115900</v>
+    <v>118353</v>
+    <v>128080</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2620,17 +2620,20 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1.0276000000000001</v>
+    <v>1.0264</v>
     <v>0.88670000000000004</v>
-    <v>-9.5999999999999992E-3</v>
-    <v>-1.0199E-2</v>
+    <v>-2.9999999999999997E-4</v>
+    <v>-3.212E-4</v>
     <v>EUR</v>
     <v>USD</v>
+    <v>0.93440000000000001</v>
     <v>Currency Pair</v>
-    <v>45233.875</v>
+    <v>45239.289363425924</v>
+    <v>0.93330000000000002</v>
     <v>US Dollar/Euro FX Cross Rate</v>
-    <v>0.94130000000000003</v>
-    <v>0.93169999999999997</v>
+    <v>0.93389999999999995</v>
+    <v>0.93389999999999995</v>
+    <v>0.93359999999999999</v>
     <v>USDEUR</v>
     <v>USD/EUR</v>
   </rv>
@@ -2711,9 +2714,12 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
+    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
+    <k n="Low"/>
     <k n="Name" t="s"/>
+    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2769,7 +2775,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="24">
+    <a count="27">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2787,6 +2793,9 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2850,7 +2859,10 @@
       <v>1</v>
     </spb>
     <spb s="7">
+      <v>1</v>
+      <v>1</v>
       <v>3</v>
+      <v>1</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -2922,7 +2934,10 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
     <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -3295,10 +3310,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J117" sqref="J117"/>
+      <selection pane="bottomRight" activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4051,15 +4066,15 @@
       </c>
       <c r="Q16" s="33">
         <f>R102/J3</f>
-        <v>2.4605879744095036</v>
+        <v>2.3220766768121575</v>
       </c>
       <c r="R16" s="33">
         <f>R102/J28</f>
-        <v>38.974401698872086</v>
+        <v>36.780456589599375</v>
       </c>
       <c r="S16" s="34">
         <f>R102/J107</f>
-        <v>10.998989494747374</v>
+        <v>10.37983491745873</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -4190,15 +4205,15 @@
       </c>
       <c r="Q19" s="33">
         <f>R102/K3</f>
-        <v>2.0335719570847206</v>
+        <v>1.9190982241953385</v>
       </c>
       <c r="R19" s="35">
         <f>R102/K28</f>
-        <v>35.417171391752575</v>
+        <v>33.423469716494843</v>
       </c>
       <c r="S19" s="34">
         <f>R102/K105</f>
-        <v>475446455520</v>
+        <v>448682646960</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4362,7 +4377,7 @@
       </c>
       <c r="S22" s="38">
         <f>K107/R102</f>
-        <v>2.2740731105408748E-2</v>
+        <v>2.4097210073212142E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6821,7 +6836,7 @@
       </c>
       <c r="S92" s="44" cm="1">
         <f t="array" ref="S92">_FV(S91,"Price")</f>
-        <v>0.93169999999999997</v>
+        <v>0.93359999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6953,7 +6968,7 @@
       </c>
       <c r="R95" s="69">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="20" x14ac:dyDescent="0.25">
@@ -6998,7 +7013,7 @@
       </c>
       <c r="R96" s="50" cm="1">
         <f t="array" ref="R96">_FV(A1,"Beta")</f>
-        <v>1.5722</v>
+        <v>1.5642</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7087,7 +7102,7 @@
       </c>
       <c r="R98" s="48">
         <f>(R95)+((R96)*(R97-R95))</f>
-        <v>0.10534878200000002</v>
+        <v>0.10560321800000001</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7219,7 +7234,7 @@
       </c>
       <c r="R101" s="48">
         <f>R100/R104</f>
-        <v>9.1515328962936682E-3</v>
+        <v>9.6921287589375963E-3</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7264,7 +7279,7 @@
       </c>
       <c r="R102" s="51" cm="1">
         <f t="array" ref="R102">_FV(A1,"Market cap",TRUE)</f>
-        <v>21986980000</v>
+        <v>20749290000</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -7309,7 +7324,7 @@
       </c>
       <c r="R103" s="48">
         <f>R102/R104</f>
-        <v>0.99084846710370633</v>
+        <v>0.99030787124106245</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7356,7 +7371,7 @@
       </c>
       <c r="R104" s="52">
         <f>R100+R102</f>
-        <v>22190053000</v>
+        <v>20952363000</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7493,7 +7508,7 @@
       </c>
       <c r="R106" s="56">
         <f>(R101*R93)+(R103*R98)</f>
-        <v>0.10480029102941871</v>
+        <v>0.10501986075341888</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -7560,7 +7575,7 @@
       <c r="N108" s="70"/>
       <c r="O108" s="59">
         <f>O107*(1+R108)/(R109-R108)</f>
-        <v>23120216432.792618</v>
+        <v>23056775938.230701</v>
       </c>
       <c r="P108" s="60" t="s">
         <v>145</v>
@@ -7591,7 +7606,7 @@
       </c>
       <c r="O109" s="59">
         <f>O108+O107</f>
-        <v>24920216432.792618</v>
+        <v>24856775938.230701</v>
       </c>
       <c r="P109" s="60" t="s">
         <v>142</v>
@@ -7601,7 +7616,7 @@
       </c>
       <c r="R109" s="42">
         <f>R106</f>
-        <v>0.10480029102941871</v>
+        <v>0.10501986075341888</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="19" x14ac:dyDescent="0.2">
@@ -7622,7 +7637,7 @@
       </c>
       <c r="L111" s="51">
         <f>NPV(R109,K109,L109,M109,N109,O109)</f>
-        <v>18192955041.960041</v>
+        <v>18137700555.210114</v>
       </c>
       <c r="M111" s="46"/>
       <c r="N111" s="46"/>
@@ -7667,7 +7682,7 @@
       </c>
       <c r="L114" s="51">
         <f>L111+L112-L113</f>
-        <v>23954680041.960041</v>
+        <v>23899425555.210114</v>
       </c>
       <c r="M114" s="46"/>
       <c r="N114" s="46"/>
@@ -7697,7 +7712,7 @@
       </c>
       <c r="L116" s="65">
         <f>L114/L115</f>
-        <v>761.80474523799251</v>
+        <v>760.04754663930316</v>
       </c>
       <c r="M116" s="46"/>
       <c r="N116" s="46"/>
@@ -7712,7 +7727,7 @@
       </c>
       <c r="L117" s="66" cm="1">
         <f t="array" ref="L117">_FV(A1,"Price")*S92</f>
-        <v>660.38895999999988</v>
+        <v>649.50552000000005</v>
       </c>
       <c r="M117" s="46"/>
       <c r="N117" s="46"/>
@@ -7727,7 +7742,7 @@
       </c>
       <c r="L118" s="67">
         <f>L116/L117-1</f>
-        <v>0.15356977687512008</v>
+        <v>0.17019412958846458</v>
       </c>
       <c r="M118" s="46"/>
       <c r="N118" s="46"/>
